--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6602,28 +6602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>10361.47234409951</v>
+        <v>10556.51661306379</v>
       </c>
       <c r="AB2" t="n">
-        <v>14177.02357709596</v>
+        <v>14443.89175063876</v>
       </c>
       <c r="AC2" t="n">
-        <v>12823.98834447495</v>
+        <v>13065.38699408664</v>
       </c>
       <c r="AD2" t="n">
-        <v>10361472.34409951</v>
+        <v>10556516.61306379</v>
       </c>
       <c r="AE2" t="n">
-        <v>14177023.57709596</v>
+        <v>14443891.75063876</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.976117822208981e-07</v>
+        <v>9.20712079053432e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.53854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>12823988.34447495</v>
+        <v>13065386.99408664</v>
       </c>
     </row>
     <row r="3">
@@ -6708,28 +6708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3436.977441732272</v>
+        <v>3534.456995295677</v>
       </c>
       <c r="AB3" t="n">
-        <v>4702.624164521673</v>
+        <v>4835.999990201521</v>
       </c>
       <c r="AC3" t="n">
-        <v>4253.812314434015</v>
+        <v>4374.45893850512</v>
       </c>
       <c r="AD3" t="n">
-        <v>3436977.441732273</v>
+        <v>3534456.995295677</v>
       </c>
       <c r="AE3" t="n">
-        <v>4702624.164521674</v>
+        <v>4835999.990201521</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.440181303874029e-07</v>
+        <v>1.746680698784743e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.096875</v>
       </c>
       <c r="AH3" t="n">
-        <v>4253812.314434015</v>
+        <v>4374458.938505121</v>
       </c>
     </row>
     <row r="4">
@@ -6814,28 +6814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2632.242404327038</v>
+        <v>2717.611608622786</v>
       </c>
       <c r="AB4" t="n">
-        <v>3601.550183939553</v>
+        <v>3718.356095480488</v>
       </c>
       <c r="AC4" t="n">
-        <v>3257.823289191657</v>
+        <v>3363.481408473247</v>
       </c>
       <c r="AD4" t="n">
-        <v>2632242.404327039</v>
+        <v>2717611.608622786</v>
       </c>
       <c r="AE4" t="n">
-        <v>3601550.183939553</v>
+        <v>3718356.095480488</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.109888724461036e-06</v>
+        <v>2.053584725135887e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.69166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3257823.289191657</v>
+        <v>3363481.408473247</v>
       </c>
     </row>
     <row r="5">
@@ -6920,28 +6920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2322.074214833309</v>
+        <v>2407.358078274485</v>
       </c>
       <c r="AB5" t="n">
-        <v>3177.164383419432</v>
+        <v>3293.85352783817</v>
       </c>
       <c r="AC5" t="n">
-        <v>2873.94027384398</v>
+        <v>2979.492770093631</v>
       </c>
       <c r="AD5" t="n">
-        <v>2322074.214833309</v>
+        <v>2407358.078274485</v>
       </c>
       <c r="AE5" t="n">
-        <v>3177164.383419432</v>
+        <v>3293853.52783817</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.198586456384315e-06</v>
+        <v>2.217698751540017e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.67916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2873940.27384398</v>
+        <v>2979492.770093631</v>
       </c>
     </row>
     <row r="6">
@@ -7026,28 +7026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2161.892369306469</v>
+        <v>2234.980721642521</v>
       </c>
       <c r="AB6" t="n">
-        <v>2957.996515645147</v>
+        <v>3057.999223742044</v>
       </c>
       <c r="AC6" t="n">
-        <v>2675.689479766158</v>
+        <v>2766.148069756855</v>
       </c>
       <c r="AD6" t="n">
-        <v>2161892.369306469</v>
+        <v>2234980.721642521</v>
       </c>
       <c r="AE6" t="n">
-        <v>2957996.515645147</v>
+        <v>3057999.223742044</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.253584885553848e-06</v>
+        <v>2.319460244885998e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.12291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2675689.479766158</v>
+        <v>2766148.069756854</v>
       </c>
     </row>
     <row r="7">
@@ -7132,28 +7132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2046.892046005546</v>
+        <v>2120.065649687615</v>
       </c>
       <c r="AB7" t="n">
-        <v>2800.647999848627</v>
+        <v>2900.767352597994</v>
       </c>
       <c r="AC7" t="n">
-        <v>2533.358085477228</v>
+        <v>2623.92218771859</v>
       </c>
       <c r="AD7" t="n">
-        <v>2046892.046005546</v>
+        <v>2120065.649687615</v>
       </c>
       <c r="AE7" t="n">
-        <v>2800647.999848627</v>
+        <v>2900767.352597993</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.291514836705251e-06</v>
+        <v>2.389640585124607e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.765625</v>
       </c>
       <c r="AH7" t="n">
-        <v>2533358.085477228</v>
+        <v>2623922.18771859</v>
       </c>
     </row>
     <row r="8">
@@ -7238,28 +7238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1976.038559208007</v>
+        <v>2049.212162890077</v>
       </c>
       <c r="AB8" t="n">
-        <v>2703.703133377007</v>
+        <v>2803.822486126374</v>
       </c>
       <c r="AC8" t="n">
-        <v>2445.665500998686</v>
+        <v>2536.229603240048</v>
       </c>
       <c r="AD8" t="n">
-        <v>1976038.559208008</v>
+        <v>2049212.162890077</v>
       </c>
       <c r="AE8" t="n">
-        <v>2703703.133377007</v>
+        <v>2803822.486126374</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.318649340221254e-06</v>
+        <v>2.439846520833765e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.52395833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2445665.500998686</v>
+        <v>2536229.603240048</v>
       </c>
     </row>
     <row r="9">
@@ -7344,28 +7344,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1922.738507216175</v>
+        <v>1995.741518697651</v>
       </c>
       <c r="AB9" t="n">
-        <v>2630.775650809443</v>
+        <v>2730.661591783964</v>
       </c>
       <c r="AC9" t="n">
-        <v>2379.698115013005</v>
+        <v>2470.051081971716</v>
       </c>
       <c r="AD9" t="n">
-        <v>1922738.507216175</v>
+        <v>1995741.518697651</v>
       </c>
       <c r="AE9" t="n">
-        <v>2630775.650809443</v>
+        <v>2730661.591783964</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.339073160072009e-06</v>
+        <v>2.4776359348084e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.34895833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2379698.115013005</v>
+        <v>2470051.081971716</v>
       </c>
     </row>
     <row r="10">
@@ -7450,28 +7450,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1877.342888613648</v>
+        <v>1938.32098119059</v>
       </c>
       <c r="AB10" t="n">
-        <v>2568.663362724119</v>
+        <v>2652.096279151473</v>
       </c>
       <c r="AC10" t="n">
-        <v>2323.5137365274</v>
+        <v>2398.983932509761</v>
       </c>
       <c r="AD10" t="n">
-        <v>1877342.888613648</v>
+        <v>1938320.98119059</v>
       </c>
       <c r="AE10" t="n">
-        <v>2568663.362724119</v>
+        <v>2652096.279151473</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.356433406945151e-06</v>
+        <v>2.50975693668684e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.203125</v>
       </c>
       <c r="AH10" t="n">
-        <v>2323513.7365274</v>
+        <v>2398983.932509761</v>
       </c>
     </row>
     <row r="11">
@@ -7556,28 +7556,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1844.114949504023</v>
+        <v>1905.093042080966</v>
       </c>
       <c r="AB11" t="n">
-        <v>2523.199430521116</v>
+        <v>2606.63234694847</v>
       </c>
       <c r="AC11" t="n">
-        <v>2282.388818204822</v>
+        <v>2357.859014187184</v>
       </c>
       <c r="AD11" t="n">
-        <v>1844114.949504023</v>
+        <v>1905093.042080966</v>
       </c>
       <c r="AE11" t="n">
-        <v>2523199.430521116</v>
+        <v>2606632.34694847</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.36883358328311e-06</v>
+        <v>2.532700509457154e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.10208333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2282388.818204822</v>
+        <v>2357859.014187184</v>
       </c>
     </row>
     <row r="12">
@@ -7662,28 +7662,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1812.48370796513</v>
+        <v>1873.461800542072</v>
       </c>
       <c r="AB12" t="n">
-        <v>2479.920170375713</v>
+        <v>2563.353086803067</v>
       </c>
       <c r="AC12" t="n">
-        <v>2243.240069904874</v>
+        <v>2318.710265887235</v>
       </c>
       <c r="AD12" t="n">
-        <v>1812483.70796513</v>
+        <v>1873461.800542072</v>
       </c>
       <c r="AE12" t="n">
-        <v>2479920.170375713</v>
+        <v>2563353.086803067</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.38021256862853e-06</v>
+        <v>2.553754611528737e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.009375</v>
       </c>
       <c r="AH12" t="n">
-        <v>2243240.069904874</v>
+        <v>2318710.265887234</v>
       </c>
     </row>
     <row r="13">
@@ -7768,28 +7768,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1774.604716243443</v>
+        <v>1847.692979070941</v>
       </c>
       <c r="AB13" t="n">
-        <v>2428.092462798926</v>
+        <v>2528.095048426096</v>
       </c>
       <c r="AC13" t="n">
-        <v>2196.358725998572</v>
+        <v>2286.817205207994</v>
       </c>
       <c r="AD13" t="n">
-        <v>1774604.716243443</v>
+        <v>1847692.979070941</v>
       </c>
       <c r="AE13" t="n">
-        <v>2428092.462798926</v>
+        <v>2528095.048426096</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.389111518706359e-06</v>
+        <v>2.570219999046256e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.93958333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>2196358.725998572</v>
+        <v>2286817.205207994</v>
       </c>
     </row>
     <row r="14">
@@ -7874,28 +7874,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1750.172218777159</v>
+        <v>1823.260481604656</v>
       </c>
       <c r="AB14" t="n">
-        <v>2394.662841879841</v>
+        <v>2494.665427507011</v>
       </c>
       <c r="AC14" t="n">
-        <v>2166.119581181236</v>
+        <v>2256.578060390659</v>
       </c>
       <c r="AD14" t="n">
-        <v>1750172.218777159</v>
+        <v>1823260.481604656</v>
       </c>
       <c r="AE14" t="n">
-        <v>2394662.841879841</v>
+        <v>2494665.427507011</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.397135162219156e-06</v>
+        <v>2.585065840250577e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.87708333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>2166119.581181236</v>
+        <v>2256578.060390659</v>
       </c>
     </row>
     <row r="15">
@@ -7980,28 +7980,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1731.328052660058</v>
+        <v>1804.416315487555</v>
       </c>
       <c r="AB15" t="n">
-        <v>2368.879422452488</v>
+        <v>2468.882008079657</v>
       </c>
       <c r="AC15" t="n">
-        <v>2142.796895116773</v>
+        <v>2233.255374326195</v>
       </c>
       <c r="AD15" t="n">
-        <v>1731328.052660058</v>
+        <v>1804416.315487555</v>
       </c>
       <c r="AE15" t="n">
-        <v>2368879.422452488</v>
+        <v>2468882.008079657</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.402678770464361e-06</v>
+        <v>2.595322966900835e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.834375</v>
       </c>
       <c r="AH15" t="n">
-        <v>2142796.895116773</v>
+        <v>2233255.374326195</v>
       </c>
     </row>
     <row r="16">
@@ -8086,28 +8086,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1708.273468568699</v>
+        <v>1781.361731396196</v>
       </c>
       <c r="AB16" t="n">
-        <v>2337.335123402223</v>
+        <v>2437.337709029393</v>
       </c>
       <c r="AC16" t="n">
-        <v>2114.263139695164</v>
+        <v>2204.721618904587</v>
       </c>
       <c r="AD16" t="n">
-        <v>1708273.468568699</v>
+        <v>1781361.731396196</v>
       </c>
       <c r="AE16" t="n">
-        <v>2337335.123402223</v>
+        <v>2437337.709029393</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.40968122298462e-06</v>
+        <v>2.608279337406425e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.77916666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>2114263.139695164</v>
+        <v>2204721.618904587</v>
       </c>
     </row>
     <row r="17">
@@ -8192,28 +8192,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1690.652025702036</v>
+        <v>1763.740288529533</v>
       </c>
       <c r="AB17" t="n">
-        <v>2313.224687868862</v>
+        <v>2413.227273496032</v>
       </c>
       <c r="AC17" t="n">
-        <v>2092.453770289897</v>
+        <v>2182.91224949932</v>
       </c>
       <c r="AD17" t="n">
-        <v>1690652.025702036</v>
+        <v>1763740.288529533</v>
       </c>
       <c r="AE17" t="n">
-        <v>2313224.687868862</v>
+        <v>2413227.273496032</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.414349524664792e-06</v>
+        <v>2.616916917743484e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.74375</v>
       </c>
       <c r="AH17" t="n">
-        <v>2092453.770289897</v>
+        <v>2182912.24949932</v>
       </c>
     </row>
     <row r="18">
@@ -8298,28 +8298,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1672.26240466883</v>
+        <v>1745.350667496328</v>
       </c>
       <c r="AB18" t="n">
-        <v>2288.063197078409</v>
+        <v>2388.065782705578</v>
       </c>
       <c r="AC18" t="n">
-        <v>2069.693656866111</v>
+        <v>2160.152136075533</v>
       </c>
       <c r="AD18" t="n">
-        <v>1672262.40466883</v>
+        <v>1745350.667496328</v>
       </c>
       <c r="AE18" t="n">
-        <v>2288063.197078409</v>
+        <v>2388065.782705578</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.419309595199976e-06</v>
+        <v>2.62609434685161e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.70729166666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>2069693.656866111</v>
+        <v>2160152.136075533</v>
       </c>
     </row>
     <row r="19">
@@ -8404,28 +8404,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1656.953737584474</v>
+        <v>1730.042000411971</v>
       </c>
       <c r="AB19" t="n">
-        <v>2267.117203402865</v>
+        <v>2367.119789030035</v>
       </c>
       <c r="AC19" t="n">
-        <v>2050.746719429074</v>
+        <v>2141.205198638497</v>
       </c>
       <c r="AD19" t="n">
-        <v>1656953.737584474</v>
+        <v>1730042.000411971</v>
       </c>
       <c r="AE19" t="n">
-        <v>2267117.203402865</v>
+        <v>2367119.789030035</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.422810821460105e-06</v>
+        <v>2.632572532104404e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.68020833333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>2050746.719429075</v>
+        <v>2141205.198638497</v>
       </c>
     </row>
     <row r="20">
@@ -8510,28 +8510,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1641.558502212257</v>
+        <v>1714.646765039754</v>
       </c>
       <c r="AB20" t="n">
-        <v>2246.052763176749</v>
+        <v>2346.055348803917</v>
       </c>
       <c r="AC20" t="n">
-        <v>2031.692639814011</v>
+        <v>2122.151119023434</v>
       </c>
       <c r="AD20" t="n">
-        <v>1641558.502212257</v>
+        <v>1714646.765039754</v>
       </c>
       <c r="AE20" t="n">
-        <v>2246052.763176749</v>
+        <v>2346055.348803917</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.425874394437719e-06</v>
+        <v>2.6382409442006e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.65729166666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>2031692.639814011</v>
+        <v>2122151.119023434</v>
       </c>
     </row>
     <row r="21">
@@ -8616,28 +8616,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1626.715493568161</v>
+        <v>1699.803756395658</v>
       </c>
       <c r="AB21" t="n">
-        <v>2225.743903922571</v>
+        <v>2325.74648954974</v>
       </c>
       <c r="AC21" t="n">
-        <v>2013.322029583388</v>
+        <v>2103.780508792811</v>
       </c>
       <c r="AD21" t="n">
-        <v>1626715.493568161</v>
+        <v>1699803.756395658</v>
       </c>
       <c r="AE21" t="n">
-        <v>2225743.90392257</v>
+        <v>2325746.48954974</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.429667389552859e-06</v>
+        <v>2.64525897822446e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.63020833333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>2013322.029583388</v>
+        <v>2103780.508792812</v>
       </c>
     </row>
     <row r="22">
@@ -8722,28 +8722,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1610.107203243407</v>
+        <v>1683.195466070905</v>
       </c>
       <c r="AB22" t="n">
-        <v>2203.019708394186</v>
+        <v>2303.022294021355</v>
       </c>
       <c r="AC22" t="n">
-        <v>1992.766599382624</v>
+        <v>2083.225078592046</v>
       </c>
       <c r="AD22" t="n">
-        <v>1610107.203243407</v>
+        <v>1683195.466070905</v>
       </c>
       <c r="AE22" t="n">
-        <v>2203019.708394186</v>
+        <v>2303022.294021355</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.433314500240494e-06</v>
+        <v>2.652007087862788e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>10.60208333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>1992766.599382624</v>
+        <v>2083225.078592047</v>
       </c>
     </row>
     <row r="23">
@@ -8828,28 +8828,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1597.796019107278</v>
+        <v>1670.884281934776</v>
       </c>
       <c r="AB23" t="n">
-        <v>2186.175003128022</v>
+        <v>2286.177588755191</v>
       </c>
       <c r="AC23" t="n">
-        <v>1977.529529145371</v>
+        <v>2067.988008354794</v>
       </c>
       <c r="AD23" t="n">
-        <v>1597796.019107278</v>
+        <v>1670884.281934776</v>
       </c>
       <c r="AE23" t="n">
-        <v>2186175.003128022</v>
+        <v>2286177.588755191</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.435356882225569e-06</v>
+        <v>2.655786029260251e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>10.58645833333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>1977529.529145371</v>
+        <v>2067988.008354794</v>
       </c>
     </row>
     <row r="24">
@@ -8934,28 +8934,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1582.78632752702</v>
+        <v>1655.874590354518</v>
       </c>
       <c r="AB24" t="n">
-        <v>2165.638080927054</v>
+        <v>2265.640666554224</v>
       </c>
       <c r="AC24" t="n">
-        <v>1958.952621975512</v>
+        <v>2049.411101184935</v>
       </c>
       <c r="AD24" t="n">
-        <v>1582786.32752702</v>
+        <v>1655874.590354518</v>
       </c>
       <c r="AE24" t="n">
-        <v>2165638.080927054</v>
+        <v>2265640.666554224</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.437836917493161e-06</v>
+        <v>2.660374743814315e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>10.56875</v>
       </c>
       <c r="AH24" t="n">
-        <v>1958952.621975512</v>
+        <v>2049411.101184935</v>
       </c>
     </row>
     <row r="25">
@@ -9040,28 +9040,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1569.668568172282</v>
+        <v>1630.731912095245</v>
       </c>
       <c r="AB25" t="n">
-        <v>2147.689783863203</v>
+        <v>2231.239344943206</v>
       </c>
       <c r="AC25" t="n">
-        <v>1942.717285192841</v>
+        <v>2018.292993425915</v>
       </c>
       <c r="AD25" t="n">
-        <v>1569668.568172282</v>
+        <v>1630731.912095245</v>
       </c>
       <c r="AE25" t="n">
-        <v>2147689.783863203</v>
+        <v>2231239.344943206</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.440025183905742e-06</v>
+        <v>2.664423609597311e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>10.553125</v>
       </c>
       <c r="AH25" t="n">
-        <v>1942717.285192841</v>
+        <v>2018292.993425915</v>
       </c>
     </row>
     <row r="26">
@@ -9146,28 +9146,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>1565.998462230479</v>
+        <v>1627.061806153441</v>
       </c>
       <c r="AB26" t="n">
-        <v>2142.668182999981</v>
+        <v>2226.217744079984</v>
       </c>
       <c r="AC26" t="n">
-        <v>1938.174938868145</v>
+        <v>2013.750647101218</v>
       </c>
       <c r="AD26" t="n">
-        <v>1565998.462230479</v>
+        <v>1627061.806153442</v>
       </c>
       <c r="AE26" t="n">
-        <v>2142668.182999981</v>
+        <v>2226217.744079984</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.441192259325785e-06</v>
+        <v>2.666583004681576e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>10.54375</v>
       </c>
       <c r="AH26" t="n">
-        <v>1938174.938868145</v>
+        <v>2013750.647101218</v>
       </c>
     </row>
     <row r="27">
@@ -9252,28 +9252,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>1571.94980714706</v>
+        <v>1633.013151070023</v>
       </c>
       <c r="AB27" t="n">
-        <v>2150.811075669655</v>
+        <v>2234.360636749659</v>
       </c>
       <c r="AC27" t="n">
-        <v>1945.540685290046</v>
+        <v>2021.11639352312</v>
       </c>
       <c r="AD27" t="n">
-        <v>1571949.807147061</v>
+        <v>1633013.151070023</v>
       </c>
       <c r="AE27" t="n">
-        <v>2150811.075669655</v>
+        <v>2234360.636749659</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.441046374898279e-06</v>
+        <v>2.666313080296043e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>11</v>
+        <v>10.54479166666667</v>
       </c>
       <c r="AH27" t="n">
-        <v>1945540.685290047</v>
+        <v>2021116.39352312</v>
       </c>
     </row>
   </sheetData>
@@ -9549,28 +9549,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6243.956783458118</v>
+        <v>6385.036077704704</v>
       </c>
       <c r="AB2" t="n">
-        <v>8543.257135059903</v>
+        <v>8736.28804942729</v>
       </c>
       <c r="AC2" t="n">
-        <v>7727.90066462616</v>
+        <v>7902.508979446907</v>
       </c>
       <c r="AD2" t="n">
-        <v>6243956.783458118</v>
+        <v>6385036.077704704</v>
       </c>
       <c r="AE2" t="n">
-        <v>8543257.135059902</v>
+        <v>8736288.04942729</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.546710017763942e-07</v>
+        <v>1.247903966331823e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.01354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>7727900.66462616</v>
+        <v>7902508.979446907</v>
       </c>
     </row>
     <row r="3">
@@ -9655,28 +9655,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2691.622365786302</v>
+        <v>2785.646721993469</v>
       </c>
       <c r="AB3" t="n">
-        <v>3682.796466867136</v>
+        <v>3811.444739091629</v>
       </c>
       <c r="AC3" t="n">
-        <v>3331.315540906502</v>
+        <v>3447.685802588868</v>
       </c>
       <c r="AD3" t="n">
-        <v>2691622.365786302</v>
+        <v>2785646.721993469</v>
       </c>
       <c r="AE3" t="n">
-        <v>3682796.466867136</v>
+        <v>3811444.739091629</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.066368210823421e-06</v>
+        <v>2.032662384993236e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.74166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3331315.540906502</v>
+        <v>3447685.802588868</v>
       </c>
     </row>
     <row r="4">
@@ -9761,28 +9761,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2156.669013725082</v>
+        <v>2238.929657799533</v>
       </c>
       <c r="AB4" t="n">
-        <v>2950.849690100507</v>
+        <v>3063.402332406837</v>
       </c>
       <c r="AC4" t="n">
-        <v>2669.224737220866</v>
+        <v>2771.03551331399</v>
       </c>
       <c r="AD4" t="n">
-        <v>2156669.013725082</v>
+        <v>2238929.657799533</v>
       </c>
       <c r="AE4" t="n">
-        <v>2950849.690100507</v>
+        <v>3063402.332406837</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.216529033038154e-06</v>
+        <v>2.318892086814389e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>2669224.737220866</v>
+        <v>2771035.51331399</v>
       </c>
     </row>
     <row r="5">
@@ -9867,28 +9867,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1948.376745087634</v>
+        <v>2018.873766537917</v>
       </c>
       <c r="AB5" t="n">
-        <v>2665.855018944401</v>
+        <v>2762.312153801764</v>
       </c>
       <c r="AC5" t="n">
-        <v>2411.429557487366</v>
+        <v>2498.680958772381</v>
       </c>
       <c r="AD5" t="n">
-        <v>1948376.745087634</v>
+        <v>2018873.766537917</v>
       </c>
       <c r="AE5" t="n">
-        <v>2665855.018944401</v>
+        <v>2762312.153801764</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.294552294430131e-06</v>
+        <v>2.467616464544576e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.14375</v>
       </c>
       <c r="AH5" t="n">
-        <v>2411429.557487366</v>
+        <v>2498680.958772381</v>
       </c>
     </row>
     <row r="6">
@@ -9973,28 +9973,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1817.248979404644</v>
+        <v>1887.831252200947</v>
       </c>
       <c r="AB6" t="n">
-        <v>2486.440224988194</v>
+        <v>2583.014004498205</v>
       </c>
       <c r="AC6" t="n">
-        <v>2249.137859656093</v>
+        <v>2336.494773191821</v>
       </c>
       <c r="AD6" t="n">
-        <v>1817248.979404644</v>
+        <v>1887831.252200947</v>
       </c>
       <c r="AE6" t="n">
-        <v>2486440.224988194</v>
+        <v>2583014.004498206</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.343599799173637e-06</v>
+        <v>2.561108578204752e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="AH6" t="n">
-        <v>2249137.859656094</v>
+        <v>2336494.773191821</v>
       </c>
     </row>
     <row r="7">
@@ -10079,28 +10079,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1738.929340590727</v>
+        <v>1809.341021186438</v>
       </c>
       <c r="AB7" t="n">
-        <v>2379.279839944386</v>
+        <v>2475.620207679551</v>
       </c>
       <c r="AC7" t="n">
-        <v>2152.204711360321</v>
+        <v>2239.350489613398</v>
       </c>
       <c r="AD7" t="n">
-        <v>1738929.340590728</v>
+        <v>1809341.021186438</v>
       </c>
       <c r="AE7" t="n">
-        <v>2379279.839944386</v>
+        <v>2475620.207679551</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.37680118700001e-06</v>
+        <v>2.62439554745164e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.41875</v>
       </c>
       <c r="AH7" t="n">
-        <v>2152204.711360321</v>
+        <v>2239350.489613398</v>
       </c>
     </row>
     <row r="8">
@@ -10185,28 +10185,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1682.727263119495</v>
+        <v>1753.138943715206</v>
       </c>
       <c r="AB8" t="n">
-        <v>2302.38167808758</v>
+        <v>2398.722045822745</v>
       </c>
       <c r="AC8" t="n">
-        <v>2082.645602143881</v>
+        <v>2169.791380396957</v>
       </c>
       <c r="AD8" t="n">
-        <v>1682727.263119495</v>
+        <v>1753138.943715206</v>
       </c>
       <c r="AE8" t="n">
-        <v>2302381.67808758</v>
+        <v>2398722.045822745</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.400494904676104e-06</v>
+        <v>2.669559430050556e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.225</v>
       </c>
       <c r="AH8" t="n">
-        <v>2082645.602143881</v>
+        <v>2169791.380396957</v>
       </c>
     </row>
     <row r="9">
@@ -10291,28 +10291,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1639.675497043897</v>
+        <v>1698.494147216035</v>
       </c>
       <c r="AB9" t="n">
-        <v>2243.476352433074</v>
+        <v>2323.954624494299</v>
       </c>
       <c r="AC9" t="n">
-        <v>2029.362118095697</v>
+        <v>2102.159656823364</v>
       </c>
       <c r="AD9" t="n">
-        <v>1639675.497043897</v>
+        <v>1698494.147216035</v>
       </c>
       <c r="AE9" t="n">
-        <v>2243476.352433074</v>
+        <v>2323954.624494299</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.418001090984555e-06</v>
+        <v>2.702928922926188e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.08645833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2029362.118095697</v>
+        <v>2102159.656823364</v>
       </c>
     </row>
     <row r="10">
@@ -10397,28 +10397,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1588.685481190134</v>
+        <v>1659.182413131866</v>
       </c>
       <c r="AB10" t="n">
-        <v>2173.709563221219</v>
+        <v>2270.166575609033</v>
       </c>
       <c r="AC10" t="n">
-        <v>1966.253773327918</v>
+        <v>2053.505063831707</v>
       </c>
       <c r="AD10" t="n">
-        <v>1588685.481190134</v>
+        <v>1659182.413131866</v>
       </c>
       <c r="AE10" t="n">
-        <v>2173709.563221219</v>
+        <v>2270166.575609033</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.432941715506423e-06</v>
+        <v>2.731408059087288e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.97083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1966253.773327918</v>
+        <v>2053505.063831707</v>
       </c>
     </row>
     <row r="11">
@@ -10503,28 +10503,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1558.239060959083</v>
+        <v>1628.735992900815</v>
       </c>
       <c r="AB11" t="n">
-        <v>2132.051427859833</v>
+        <v>2228.508440247647</v>
       </c>
       <c r="AC11" t="n">
-        <v>1928.571431937863</v>
+        <v>2015.822722441651</v>
       </c>
       <c r="AD11" t="n">
-        <v>1558239.060959083</v>
+        <v>1628735.992900815</v>
       </c>
       <c r="AE11" t="n">
-        <v>2132051.427859833</v>
+        <v>2228508.440247647</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.44395853964881e-06</v>
+        <v>2.752407826155573e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.8875</v>
       </c>
       <c r="AH11" t="n">
-        <v>1928571.431937863</v>
+        <v>2015822.722441651</v>
       </c>
     </row>
     <row r="12">
@@ -10609,28 +10609,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1529.498561992246</v>
+        <v>1599.995493933978</v>
       </c>
       <c r="AB12" t="n">
-        <v>2092.727409232078</v>
+        <v>2189.184421619892</v>
       </c>
       <c r="AC12" t="n">
-        <v>1893.000442456334</v>
+        <v>1980.251732960122</v>
       </c>
       <c r="AD12" t="n">
-        <v>1529498.561992246</v>
+        <v>1599995.493933978</v>
       </c>
       <c r="AE12" t="n">
-        <v>2092727.409232078</v>
+        <v>2189184.421619893</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.453617125198301e-06</v>
+        <v>2.770818580845577e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.81458333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1893000.442456334</v>
+        <v>1980251.732960122</v>
       </c>
     </row>
     <row r="13">
@@ -10715,28 +10715,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1505.207326418721</v>
+        <v>1575.704258360453</v>
       </c>
       <c r="AB13" t="n">
-        <v>2059.491069066702</v>
+        <v>2155.948081454516</v>
       </c>
       <c r="AC13" t="n">
-        <v>1862.936131948845</v>
+        <v>1950.187422452633</v>
       </c>
       <c r="AD13" t="n">
-        <v>1505207.326418721</v>
+        <v>1575704.258360453</v>
       </c>
       <c r="AE13" t="n">
-        <v>2059491.069066701</v>
+        <v>2155948.081454516</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.46116289515884e-06</v>
+        <v>2.785201982947143e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.759375</v>
       </c>
       <c r="AH13" t="n">
-        <v>1862936.131948845</v>
+        <v>1950187.422452634</v>
       </c>
     </row>
     <row r="14">
@@ -10821,28 +10821,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1480.364623118871</v>
+        <v>1550.861555060603</v>
       </c>
       <c r="AB14" t="n">
-        <v>2025.500186429128</v>
+        <v>2121.957198816943</v>
       </c>
       <c r="AC14" t="n">
-        <v>1832.189291443698</v>
+        <v>1919.440581947486</v>
       </c>
       <c r="AD14" t="n">
-        <v>1480364.623118871</v>
+        <v>1550861.555060603</v>
       </c>
       <c r="AE14" t="n">
-        <v>2025500.186429128</v>
+        <v>2121957.198816943</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.468255918921747e-06</v>
+        <v>2.798722380922614e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.70625</v>
       </c>
       <c r="AH14" t="n">
-        <v>1832189.291443698</v>
+        <v>1919440.581947486</v>
       </c>
     </row>
     <row r="15">
@@ -10927,28 +10927,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1457.633958332542</v>
+        <v>1528.130890274274</v>
       </c>
       <c r="AB15" t="n">
-        <v>1994.399088062316</v>
+        <v>2090.856100450131</v>
       </c>
       <c r="AC15" t="n">
-        <v>1804.056438254349</v>
+        <v>1891.307728758138</v>
       </c>
       <c r="AD15" t="n">
-        <v>1457633.958332542</v>
+        <v>1528130.890274274</v>
       </c>
       <c r="AE15" t="n">
-        <v>1994399.088062316</v>
+        <v>2090856.100450131</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.473839788692546e-06</v>
+        <v>2.809366098477773e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1804056.438254349</v>
+        <v>1891307.728758138</v>
       </c>
     </row>
     <row r="16">
@@ -11033,28 +11033,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1436.238060188592</v>
+        <v>1506.734992130323</v>
       </c>
       <c r="AB16" t="n">
-        <v>1965.124276301356</v>
+        <v>2061.581288689171</v>
       </c>
       <c r="AC16" t="n">
-        <v>1777.575573440399</v>
+        <v>1864.826863944187</v>
       </c>
       <c r="AD16" t="n">
-        <v>1436238.060188591</v>
+        <v>1506734.992130324</v>
       </c>
       <c r="AE16" t="n">
-        <v>1965124.276301356</v>
+        <v>2061581.288689171</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.478970912265713e-06</v>
+        <v>2.819146811906837e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.62916666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1777575.573440399</v>
+        <v>1864826.863944187</v>
       </c>
     </row>
     <row r="17">
@@ -11139,28 +11139,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1416.433465142022</v>
+        <v>1486.930397083754</v>
       </c>
       <c r="AB17" t="n">
-        <v>1938.02675564157</v>
+        <v>2034.483768029384</v>
       </c>
       <c r="AC17" t="n">
-        <v>1753.064202120773</v>
+        <v>1840.315492624561</v>
       </c>
       <c r="AD17" t="n">
-        <v>1416433.465142022</v>
+        <v>1486930.397083754</v>
       </c>
       <c r="AE17" t="n">
-        <v>1938026.75564157</v>
+        <v>2034483.768029384</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.483498374242037e-06</v>
+        <v>2.827776853167777e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.596875</v>
       </c>
       <c r="AH17" t="n">
-        <v>1753064.202120773</v>
+        <v>1840315.492624561</v>
       </c>
     </row>
     <row r="18">
@@ -11245,28 +11245,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1398.371999251766</v>
+        <v>1468.868931193498</v>
       </c>
       <c r="AB18" t="n">
-        <v>1913.314261194883</v>
+        <v>2009.771273582697</v>
       </c>
       <c r="AC18" t="n">
-        <v>1730.710233459874</v>
+        <v>1817.961523963663</v>
       </c>
       <c r="AD18" t="n">
-        <v>1398371.999251766</v>
+        <v>1468868.931193498</v>
       </c>
       <c r="AE18" t="n">
-        <v>1913314.261194883</v>
+        <v>2009771.273582697</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.487271259222306e-06</v>
+        <v>2.83496855421856e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.56979166666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1730710.233459874</v>
+        <v>1817961.523963663</v>
       </c>
     </row>
     <row r="19">
@@ -11351,28 +11351,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1399.311437683552</v>
+        <v>1469.808369625284</v>
       </c>
       <c r="AB19" t="n">
-        <v>1914.599642302352</v>
+        <v>2011.056654690166</v>
       </c>
       <c r="AC19" t="n">
-        <v>1731.87293959849</v>
+        <v>1819.124230102278</v>
       </c>
       <c r="AD19" t="n">
-        <v>1399311.437683552</v>
+        <v>1469808.369625284</v>
       </c>
       <c r="AE19" t="n">
-        <v>1914599.642302352</v>
+        <v>2011056.654690166</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.487724005419939e-06</v>
+        <v>2.835831558344653e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.56666666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>1731872.93959849</v>
+        <v>1819124.230102278</v>
       </c>
     </row>
     <row r="20">
@@ -11457,28 +11457,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1405.52985298532</v>
+        <v>1476.026784927052</v>
       </c>
       <c r="AB20" t="n">
-        <v>1923.107952455352</v>
+        <v>2019.564964843166</v>
       </c>
       <c r="AC20" t="n">
-        <v>1739.569228571976</v>
+        <v>1826.820519075765</v>
       </c>
       <c r="AD20" t="n">
-        <v>1405529.85298532</v>
+        <v>1476026.784927052</v>
       </c>
       <c r="AE20" t="n">
-        <v>1923107.952455352</v>
+        <v>2019564.964843166</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.487874920819149e-06</v>
+        <v>2.836119226386684e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.565625</v>
       </c>
       <c r="AH20" t="n">
-        <v>1739569.228571976</v>
+        <v>1826820.519075765</v>
       </c>
     </row>
   </sheetData>
@@ -11754,28 +11754,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2023.154052949</v>
+        <v>2106.691000677935</v>
       </c>
       <c r="AB2" t="n">
-        <v>2768.168630502318</v>
+        <v>2882.467567775079</v>
       </c>
       <c r="AC2" t="n">
-        <v>2503.97850155625</v>
+        <v>2607.368908675265</v>
       </c>
       <c r="AD2" t="n">
-        <v>2023154.052949</v>
+        <v>2106691.000677935</v>
       </c>
       <c r="AE2" t="n">
-        <v>2768168.630502318</v>
+        <v>2882467.567775079</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.147643277529564e-06</v>
+        <v>2.444179839524748e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.284375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2503978.50155625</v>
+        <v>2607368.908675265</v>
       </c>
     </row>
     <row r="3">
@@ -11860,28 +11860,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1340.18140393419</v>
+        <v>1402.876807535314</v>
       </c>
       <c r="AB3" t="n">
-        <v>1833.695321493493</v>
+        <v>1919.47793862655</v>
       </c>
       <c r="AC3" t="n">
-        <v>1658.690013617701</v>
+        <v>1736.285658168238</v>
       </c>
       <c r="AD3" t="n">
-        <v>1340181.40393419</v>
+        <v>1402876.807535314</v>
       </c>
       <c r="AE3" t="n">
-        <v>1833695.321493493</v>
+        <v>1919477.938626549</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.440490182830212e-06</v>
+        <v>3.067867108920719e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.178125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1658690.013617701</v>
+        <v>1736285.658168238</v>
       </c>
     </row>
     <row r="4">
@@ -11966,28 +11966,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1166.0446076189</v>
+        <v>1228.654670365453</v>
       </c>
       <c r="AB4" t="n">
-        <v>1595.433674401655</v>
+        <v>1681.099524412514</v>
       </c>
       <c r="AC4" t="n">
-        <v>1443.167723721986</v>
+        <v>1520.657745240584</v>
       </c>
       <c r="AD4" t="n">
-        <v>1166044.6076189</v>
+        <v>1228654.670365453</v>
       </c>
       <c r="AE4" t="n">
-        <v>1595433.674401655</v>
+        <v>1681099.524412514</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.540014346736297e-06</v>
+        <v>3.279827532274956e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1443167.723721986</v>
+        <v>1520657.745240584</v>
       </c>
     </row>
     <row r="5">
@@ -12072,28 +12072,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1076.526082591726</v>
+        <v>1128.843384556231</v>
       </c>
       <c r="AB5" t="n">
-        <v>1472.950479180877</v>
+        <v>1544.53331980518</v>
       </c>
       <c r="AC5" t="n">
-        <v>1332.374152746835</v>
+        <v>1397.125227529102</v>
       </c>
       <c r="AD5" t="n">
-        <v>1076526.082591726</v>
+        <v>1128843.384556231</v>
       </c>
       <c r="AE5" t="n">
-        <v>1472950.479180877</v>
+        <v>1544533.31980518</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.59137622489426e-06</v>
+        <v>3.389214891197193e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.02291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1332374.152746835</v>
+        <v>1397125.227529102</v>
       </c>
     </row>
     <row r="6">
@@ -12178,28 +12178,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1007.943434908749</v>
+        <v>1070.638749001323</v>
       </c>
       <c r="AB6" t="n">
-        <v>1379.112674968153</v>
+        <v>1464.895169631661</v>
       </c>
       <c r="AC6" t="n">
-        <v>1247.492096865987</v>
+        <v>1325.087630635298</v>
       </c>
       <c r="AD6" t="n">
-        <v>1007943.434908749</v>
+        <v>1070638.749001323</v>
       </c>
       <c r="AE6" t="n">
-        <v>1379112.674968153</v>
+        <v>1464895.169631661</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.620172556582823e-06</v>
+        <v>3.450543541609333e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.82708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1247492.096865987</v>
+        <v>1325087.630635298</v>
       </c>
     </row>
     <row r="7">
@@ -12284,28 +12284,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1011.457825033328</v>
+        <v>1074.153139125902</v>
       </c>
       <c r="AB7" t="n">
-        <v>1383.921218580551</v>
+        <v>1469.70371324406</v>
       </c>
       <c r="AC7" t="n">
-        <v>1251.841719824852</v>
+        <v>1329.437253594163</v>
       </c>
       <c r="AD7" t="n">
-        <v>1011457.825033328</v>
+        <v>1074153.139125902</v>
       </c>
       <c r="AE7" t="n">
-        <v>1383921.218580551</v>
+        <v>1469703.71324406</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.621519753386966e-06</v>
+        <v>3.453412718236802e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.81770833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1251841.719824852</v>
+        <v>1329437.253594163</v>
       </c>
     </row>
   </sheetData>
@@ -12581,28 +12581,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3032.213491006823</v>
+        <v>3130.959655422625</v>
       </c>
       <c r="AB2" t="n">
-        <v>4148.808270213854</v>
+        <v>4283.917128740881</v>
       </c>
       <c r="AC2" t="n">
-        <v>3752.851831793465</v>
+        <v>3875.066090489142</v>
       </c>
       <c r="AD2" t="n">
-        <v>3032213.491006822</v>
+        <v>3130959.655422626</v>
       </c>
       <c r="AE2" t="n">
-        <v>4148808.270213854</v>
+        <v>4283917.128740881</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.496995563920913e-07</v>
+        <v>1.928218440682219e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>3752851.831793465</v>
+        <v>3875066.090489142</v>
       </c>
     </row>
     <row r="3">
@@ -12687,28 +12687,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1765.133629323589</v>
+        <v>1841.85086079242</v>
       </c>
       <c r="AB3" t="n">
-        <v>2415.133703840316</v>
+        <v>2520.101604461355</v>
       </c>
       <c r="AC3" t="n">
-        <v>2184.636732807239</v>
+        <v>2279.586644316379</v>
       </c>
       <c r="AD3" t="n">
-        <v>1765133.629323589</v>
+        <v>1841850.86079242</v>
       </c>
       <c r="AE3" t="n">
-        <v>2415133.703840316</v>
+        <v>2520101.604461355</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.29139807362833e-06</v>
+        <v>2.621984566668137e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.99479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2184636.732807239</v>
+        <v>2279586.644316379</v>
       </c>
     </row>
     <row r="4">
@@ -12793,28 +12793,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1501.227814154933</v>
+        <v>1577.859704769192</v>
       </c>
       <c r="AB4" t="n">
-        <v>2054.046124823697</v>
+        <v>2158.897258322538</v>
       </c>
       <c r="AC4" t="n">
-        <v>1858.010845542365</v>
+        <v>1952.855134019567</v>
       </c>
       <c r="AD4" t="n">
-        <v>1501227.814154933</v>
+        <v>1577859.704769192</v>
       </c>
       <c r="AE4" t="n">
-        <v>2054046.124823697</v>
+        <v>2158897.258322538</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.411741681537556e-06</v>
+        <v>2.866323697319471e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.8875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1858010.845542365</v>
+        <v>1952855.134019566</v>
       </c>
     </row>
     <row r="5">
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1383.831807081034</v>
+        <v>1449.491991157644</v>
       </c>
       <c r="AB5" t="n">
-        <v>1893.419728798881</v>
+        <v>1983.25888937538</v>
       </c>
       <c r="AC5" t="n">
-        <v>1712.714407313595</v>
+        <v>1793.979444494727</v>
       </c>
       <c r="AD5" t="n">
-        <v>1383831.807081034</v>
+        <v>1449491.991157644</v>
       </c>
       <c r="AE5" t="n">
-        <v>1893419.728798881</v>
+        <v>1983258.88937538</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.47296065209379e-06</v>
+        <v>2.990619372885077e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.39270833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1712714.407313595</v>
+        <v>1793979.444494727</v>
       </c>
     </row>
     <row r="6">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1310.933437606215</v>
+        <v>1365.792507345768</v>
       </c>
       <c r="AB6" t="n">
-        <v>1793.676963634351</v>
+        <v>1868.737563063354</v>
       </c>
       <c r="AC6" t="n">
-        <v>1622.490951666518</v>
+        <v>1690.387872834229</v>
       </c>
       <c r="AD6" t="n">
-        <v>1310933.437606215</v>
+        <v>1365792.507345768</v>
       </c>
       <c r="AE6" t="n">
-        <v>1793676.963634351</v>
+        <v>1868737.563063354</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.509530931873435e-06</v>
+        <v>3.064869684341373e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.11770833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1622490.951666517</v>
+        <v>1690387.872834229</v>
       </c>
     </row>
     <row r="7">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1244.693585288769</v>
+        <v>1310.439020711399</v>
       </c>
       <c r="AB7" t="n">
-        <v>1703.044675397582</v>
+        <v>1793.00048062673</v>
       </c>
       <c r="AC7" t="n">
-        <v>1540.50848181585</v>
+        <v>1621.879031247694</v>
       </c>
       <c r="AD7" t="n">
-        <v>1244693.585288769</v>
+        <v>1310439.020711399</v>
       </c>
       <c r="AE7" t="n">
-        <v>1703044.675397582</v>
+        <v>1793000.48062673</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.535146237974595e-06</v>
+        <v>3.116877611749087e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.93125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1540508.48181585</v>
+        <v>1621879.031247694</v>
       </c>
     </row>
     <row r="8">
@@ -13217,28 +13217,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1198.726035310038</v>
+        <v>1264.471470732668</v>
       </c>
       <c r="AB8" t="n">
-        <v>1640.149845571502</v>
+        <v>1730.10565080065</v>
       </c>
       <c r="AC8" t="n">
-        <v>1483.616246274923</v>
+        <v>1564.986795706767</v>
       </c>
       <c r="AD8" t="n">
-        <v>1198726.035310038</v>
+        <v>1264471.470732668</v>
       </c>
       <c r="AE8" t="n">
-        <v>1640149.845571502</v>
+        <v>1730105.65080065</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.553834134249656e-06</v>
+        <v>3.154820502184903e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="AH8" t="n">
-        <v>1483616.246274923</v>
+        <v>1564986.795706767</v>
       </c>
     </row>
     <row r="9">
@@ -13323,28 +13323,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1159.084535854488</v>
+        <v>1224.829971277118</v>
       </c>
       <c r="AB9" t="n">
-        <v>1585.910597156891</v>
+        <v>1675.866402386039</v>
       </c>
       <c r="AC9" t="n">
-        <v>1434.553515603739</v>
+        <v>1515.924065035583</v>
       </c>
       <c r="AD9" t="n">
-        <v>1159084.535854488</v>
+        <v>1224829.971277118</v>
       </c>
       <c r="AE9" t="n">
-        <v>1585910.597156891</v>
+        <v>1675866.402386039</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.568011159010047e-06</v>
+        <v>3.183604763894833e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.70208333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1434553.515603739</v>
+        <v>1515924.065035583</v>
       </c>
     </row>
     <row r="10">
@@ -13429,28 +13429,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1149.968881727878</v>
+        <v>1215.714317150509</v>
       </c>
       <c r="AB10" t="n">
-        <v>1573.438157026586</v>
+        <v>1663.393962255734</v>
       </c>
       <c r="AC10" t="n">
-        <v>1423.271427654292</v>
+        <v>1504.641977086135</v>
       </c>
       <c r="AD10" t="n">
-        <v>1149968.881727878</v>
+        <v>1215714.317150509</v>
       </c>
       <c r="AE10" t="n">
-        <v>1573438.157026586</v>
+        <v>1663393.962255734</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.571072107537858e-06</v>
+        <v>3.189819547673113e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.68229166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1423271.427654292</v>
+        <v>1504641.977086135</v>
       </c>
     </row>
     <row r="11">
@@ -13535,28 +13535,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1156.722546282449</v>
+        <v>1222.46798170508</v>
       </c>
       <c r="AB11" t="n">
-        <v>1582.678818820802</v>
+        <v>1672.63462404995</v>
       </c>
       <c r="AC11" t="n">
-        <v>1431.630173656218</v>
+        <v>1513.000723088061</v>
       </c>
       <c r="AD11" t="n">
-        <v>1156722.54628245</v>
+        <v>1222467.98170508</v>
       </c>
       <c r="AE11" t="n">
-        <v>1582678.818820802</v>
+        <v>1672634.62404995</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.571072107537858e-06</v>
+        <v>3.189819547673113e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.68125</v>
       </c>
       <c r="AH11" t="n">
-        <v>1431630.173656218</v>
+        <v>1513000.723088061</v>
       </c>
     </row>
   </sheetData>
@@ -13832,28 +13832,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1440.146261522473</v>
+        <v>1510.471679601428</v>
       </c>
       <c r="AB2" t="n">
-        <v>1970.471649784048</v>
+        <v>2066.693989338153</v>
       </c>
       <c r="AC2" t="n">
-        <v>1782.412601102988</v>
+        <v>1869.45161561895</v>
       </c>
       <c r="AD2" t="n">
-        <v>1440146.261522473</v>
+        <v>1510471.679601428</v>
       </c>
       <c r="AE2" t="n">
-        <v>1970471.649784048</v>
+        <v>2066693.989338153</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.319249237881258e-06</v>
+        <v>2.937710371669197e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.809375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1782412.601102988</v>
+        <v>1869451.61561895</v>
       </c>
     </row>
     <row r="3">
@@ -13938,28 +13938,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1029.535572495512</v>
+        <v>1089.814502277473</v>
       </c>
       <c r="AB3" t="n">
-        <v>1408.655990192242</v>
+        <v>1491.132281238618</v>
       </c>
       <c r="AC3" t="n">
-        <v>1274.215839549393</v>
+        <v>1348.820709134504</v>
       </c>
       <c r="AD3" t="n">
-        <v>1029535.572495512</v>
+        <v>1089814.502277473</v>
       </c>
       <c r="AE3" t="n">
-        <v>1408655.990192242</v>
+        <v>1491132.281238618</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.567778094706031e-06</v>
+        <v>3.491135592157323e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.61979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1274215.839549393</v>
+        <v>1348820.709134504</v>
       </c>
     </row>
     <row r="4">
@@ -14044,28 +14044,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>907.7549545946548</v>
+        <v>957.9874855881732</v>
       </c>
       <c r="AB4" t="n">
-        <v>1242.030376198606</v>
+        <v>1310.7607412068</v>
       </c>
       <c r="AC4" t="n">
-        <v>1123.492740294791</v>
+        <v>1185.663575730277</v>
       </c>
       <c r="AD4" t="n">
-        <v>907754.9545946548</v>
+        <v>957987.4855881731</v>
       </c>
       <c r="AE4" t="n">
-        <v>1242030.376198606</v>
+        <v>1310760.7412068</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.650679346032521e-06</v>
+        <v>3.675740486253995e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.03645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1123492.740294791</v>
+        <v>1185663.575730277</v>
       </c>
     </row>
     <row r="5">
@@ -14150,28 +14150,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>910.957888318241</v>
+        <v>961.1904193117593</v>
       </c>
       <c r="AB5" t="n">
-        <v>1246.412771422679</v>
+        <v>1315.143136430874</v>
       </c>
       <c r="AC5" t="n">
-        <v>1127.45688586941</v>
+        <v>1189.627721304896</v>
       </c>
       <c r="AD5" t="n">
-        <v>910957.888318241</v>
+        <v>961190.4193117593</v>
       </c>
       <c r="AE5" t="n">
-        <v>1246412.77142268</v>
+        <v>1315143.136430874</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.653127906198283e-06</v>
+        <v>3.681192951480479e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.01979166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1127456.88586941</v>
+        <v>1189627.721304896</v>
       </c>
     </row>
   </sheetData>
@@ -14447,28 +14447,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7048.047601028086</v>
+        <v>7202.281003086189</v>
       </c>
       <c r="AB2" t="n">
-        <v>9643.44966564244</v>
+        <v>9854.478610635822</v>
       </c>
       <c r="AC2" t="n">
-        <v>8723.092364219774</v>
+        <v>8913.981002883964</v>
       </c>
       <c r="AD2" t="n">
-        <v>7048047.601028087</v>
+        <v>7202281.003086189</v>
       </c>
       <c r="AE2" t="n">
-        <v>9643449.66564244</v>
+        <v>9854478.610635823</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.131949217319512e-07</v>
+        <v>1.159406679794792e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.40729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>8723092.364219774</v>
+        <v>8913981.002883963</v>
       </c>
     </row>
     <row r="3">
@@ -14553,28 +14553,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2871.207347216351</v>
+        <v>2954.348049018045</v>
       </c>
       <c r="AB3" t="n">
-        <v>3928.512561189965</v>
+        <v>4042.269337303945</v>
       </c>
       <c r="AC3" t="n">
-        <v>3553.580836051855</v>
+        <v>3656.480825112151</v>
       </c>
       <c r="AD3" t="n">
-        <v>2871207.34721635</v>
+        <v>2954348.049018044</v>
       </c>
       <c r="AE3" t="n">
-        <v>3928512.561189965</v>
+        <v>4042269.337303945</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.034504700882904e-06</v>
+        <v>1.956003903448921e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.059375</v>
       </c>
       <c r="AH3" t="n">
-        <v>3553580.836051855</v>
+        <v>3656480.825112151</v>
       </c>
     </row>
     <row r="4">
@@ -14659,28 +14659,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2282.130372696591</v>
+        <v>2353.393844170694</v>
       </c>
       <c r="AB4" t="n">
-        <v>3122.511456410026</v>
+        <v>3220.017282003373</v>
       </c>
       <c r="AC4" t="n">
-        <v>2824.503345482489</v>
+        <v>2912.703351931489</v>
       </c>
       <c r="AD4" t="n">
-        <v>2282130.372696591</v>
+        <v>2353393.844170694</v>
       </c>
       <c r="AE4" t="n">
-        <v>3122511.456410026</v>
+        <v>3220017.282003372</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.188102550789908e-06</v>
+        <v>2.246421137631666e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.11354166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2824503.345482489</v>
+        <v>2912703.351931489</v>
       </c>
     </row>
     <row r="5">
@@ -14765,28 +14765,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2041.219334142474</v>
+        <v>2112.397464762004</v>
       </c>
       <c r="AB5" t="n">
-        <v>2792.886345215187</v>
+        <v>2890.275403686331</v>
       </c>
       <c r="AC5" t="n">
-        <v>2526.337192268454</v>
+        <v>2614.431575685513</v>
       </c>
       <c r="AD5" t="n">
-        <v>2041219.334142474</v>
+        <v>2112397.464762005</v>
       </c>
       <c r="AE5" t="n">
-        <v>2792886.345215187</v>
+        <v>2890275.403686331</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.268864808774116e-06</v>
+        <v>2.399123480824151e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.27708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2526337.192268454</v>
+        <v>2614431.575685513</v>
       </c>
     </row>
     <row r="6">
@@ -14871,28 +14871,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1900.735552751971</v>
+        <v>1971.998934717522</v>
       </c>
       <c r="AB6" t="n">
-        <v>2600.670237809678</v>
+        <v>2698.17594093347</v>
       </c>
       <c r="AC6" t="n">
-        <v>2352.465920376725</v>
+        <v>2440.665816044497</v>
       </c>
       <c r="AD6" t="n">
-        <v>1900735.552751971</v>
+        <v>1971998.934717522</v>
       </c>
       <c r="AE6" t="n">
-        <v>2600670.237809678</v>
+        <v>2698175.940933471</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.319565559619758e-06</v>
+        <v>2.494986618494988e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.80625</v>
       </c>
       <c r="AH6" t="n">
-        <v>2352465.920376725</v>
+        <v>2440665.816044497</v>
       </c>
     </row>
     <row r="7">
@@ -14977,28 +14977,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1817.379430382139</v>
+        <v>1888.64281234769</v>
       </c>
       <c r="AB7" t="n">
-        <v>2486.618713770694</v>
+        <v>2584.124416894486</v>
       </c>
       <c r="AC7" t="n">
-        <v>2249.299313719702</v>
+        <v>2337.499209387474</v>
       </c>
       <c r="AD7" t="n">
-        <v>1817379.430382139</v>
+        <v>1888642.81234769</v>
       </c>
       <c r="AE7" t="n">
-        <v>2486618.713770694</v>
+        <v>2584124.416894486</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.353665179657535e-06</v>
+        <v>2.55946094117626e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.509375</v>
       </c>
       <c r="AH7" t="n">
-        <v>2249299.313719702</v>
+        <v>2337499.209387474</v>
       </c>
     </row>
     <row r="8">
@@ -15083,28 +15083,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1756.900281556007</v>
+        <v>1827.993071320965</v>
       </c>
       <c r="AB8" t="n">
-        <v>2403.868474195041</v>
+        <v>2501.140765543987</v>
       </c>
       <c r="AC8" t="n">
-        <v>2174.44664086846</v>
+        <v>2262.43540125358</v>
       </c>
       <c r="AD8" t="n">
-        <v>1756900.281556007</v>
+        <v>1827993.071320965</v>
       </c>
       <c r="AE8" t="n">
-        <v>2403868.474195042</v>
+        <v>2501140.765543987</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.378641655737836e-06</v>
+        <v>2.606685554719121e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.30104166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>2174446.64086846</v>
+        <v>2262435.40125358</v>
       </c>
     </row>
     <row r="9">
@@ -15189,28 +15189,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1711.262898394757</v>
+        <v>1770.649139541267</v>
       </c>
       <c r="AB9" t="n">
-        <v>2341.425393174572</v>
+        <v>2422.680268247281</v>
       </c>
       <c r="AC9" t="n">
-        <v>2117.963039861169</v>
+        <v>2191.463063698872</v>
       </c>
       <c r="AD9" t="n">
-        <v>1711262.898394757</v>
+        <v>1770649.139541267</v>
       </c>
       <c r="AE9" t="n">
-        <v>2341425.393174572</v>
+        <v>2422680.268247281</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.397037503389795e-06</v>
+        <v>2.641467755112965e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.15104166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2117963.039861169</v>
+        <v>2191463.063698872</v>
       </c>
     </row>
     <row r="10">
@@ -15295,28 +15295,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1673.184554835568</v>
+        <v>1732.570795982079</v>
       </c>
       <c r="AB10" t="n">
-        <v>2289.324923618934</v>
+        <v>2370.579798691643</v>
       </c>
       <c r="AC10" t="n">
-        <v>2070.834965996452</v>
+        <v>2144.334989834156</v>
       </c>
       <c r="AD10" t="n">
-        <v>1673184.554835568</v>
+        <v>1732570.795982079</v>
       </c>
       <c r="AE10" t="n">
-        <v>2289324.923618934</v>
+        <v>2370579.798691643</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.41154479787955e-06</v>
+        <v>2.668897620464207e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.03645833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2070834.965996453</v>
+        <v>2144334.989834156</v>
       </c>
     </row>
     <row r="11">
@@ -15401,28 +15401,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1628.507901088957</v>
+        <v>1699.685942199937</v>
       </c>
       <c r="AB11" t="n">
-        <v>2228.196354967963</v>
+        <v>2325.585290969558</v>
       </c>
       <c r="AC11" t="n">
-        <v>2015.540422143045</v>
+        <v>2103.634694778878</v>
       </c>
       <c r="AD11" t="n">
-        <v>1628507.901088957</v>
+        <v>1699685.942199937</v>
       </c>
       <c r="AE11" t="n">
-        <v>2228196.354967962</v>
+        <v>2325585.290969558</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.423958256051197e-06</v>
+        <v>2.692368536177126e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.940625</v>
       </c>
       <c r="AH11" t="n">
-        <v>2015540.422143045</v>
+        <v>2103634.694778878</v>
       </c>
     </row>
     <row r="12">
@@ -15507,28 +15507,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1599.699337329943</v>
+        <v>1670.877378440922</v>
       </c>
       <c r="AB12" t="n">
-        <v>2188.779207088746</v>
+        <v>2286.168143090341</v>
       </c>
       <c r="AC12" t="n">
-        <v>1979.885191535106</v>
+        <v>2067.979464170939</v>
       </c>
       <c r="AD12" t="n">
-        <v>1599699.337329943</v>
+        <v>1670877.378440923</v>
       </c>
       <c r="AE12" t="n">
-        <v>2188779.207088746</v>
+        <v>2286168.143090341</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.433679638956704e-06</v>
+        <v>2.710749373783629e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.86666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1979885.191535106</v>
+        <v>2067979.464170939</v>
       </c>
     </row>
     <row r="13">
@@ -15613,28 +15613,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1572.514806984434</v>
+        <v>1643.692848095413</v>
       </c>
       <c r="AB13" t="n">
-        <v>2151.584133373183</v>
+        <v>2248.973069374778</v>
       </c>
       <c r="AC13" t="n">
-        <v>1946.239963451343</v>
+        <v>2034.334236087175</v>
       </c>
       <c r="AD13" t="n">
-        <v>1572514.806984434</v>
+        <v>1643692.848095413</v>
       </c>
       <c r="AE13" t="n">
-        <v>2151584.133373183</v>
+        <v>2248973.069374778</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.442653223177171e-06</v>
+        <v>2.727716300805016e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.79895833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1946239.963451343</v>
+        <v>2034334.236087176</v>
       </c>
     </row>
     <row r="14">
@@ -15719,28 +15719,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1550.379163050565</v>
+        <v>1621.557204161544</v>
       </c>
       <c r="AB14" t="n">
-        <v>2121.297168787175</v>
+        <v>2218.68610478877</v>
       </c>
       <c r="AC14" t="n">
-        <v>1918.843544257401</v>
+        <v>2006.937816893234</v>
       </c>
       <c r="AD14" t="n">
-        <v>1550379.163050564</v>
+        <v>1621557.204161544</v>
       </c>
       <c r="AE14" t="n">
-        <v>2121297.168787174</v>
+        <v>2218686.10478877</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.449233851605514e-06</v>
+        <v>2.740158713954033e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AH14" t="n">
-        <v>1918843.544257401</v>
+        <v>2006937.816893234</v>
       </c>
     </row>
     <row r="15">
@@ -15825,28 +15825,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1528.738437319153</v>
+        <v>1599.916478430132</v>
       </c>
       <c r="AB15" t="n">
-        <v>2091.687373120018</v>
+        <v>2189.076309121613</v>
       </c>
       <c r="AC15" t="n">
-        <v>1892.059665931109</v>
+        <v>1980.153938566942</v>
       </c>
       <c r="AD15" t="n">
-        <v>1528738.437319153</v>
+        <v>1599916.478430132</v>
       </c>
       <c r="AE15" t="n">
-        <v>2091687.373120018</v>
+        <v>2189076.309121613</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.45491712161181e-06</v>
+        <v>2.750904434400912e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.70729166666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1892059.665931109</v>
+        <v>1980153.938566942</v>
       </c>
     </row>
     <row r="16">
@@ -15931,28 +15931,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1506.510297204486</v>
+        <v>1577.688338315465</v>
       </c>
       <c r="AB16" t="n">
-        <v>2061.2738511788</v>
+        <v>2158.662787180394</v>
       </c>
       <c r="AC16" t="n">
-        <v>1864.548767838315</v>
+        <v>1952.643040474147</v>
       </c>
       <c r="AD16" t="n">
-        <v>1506510.297204486</v>
+        <v>1577688.338315465</v>
       </c>
       <c r="AE16" t="n">
-        <v>2061273.8511788</v>
+        <v>2158662.787180394</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.460749951355114e-06</v>
+        <v>2.761932936964814e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.665625</v>
       </c>
       <c r="AH16" t="n">
-        <v>1864548.767838315</v>
+        <v>1952643.040474148</v>
       </c>
     </row>
     <row r="17">
@@ -16037,28 +16037,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1488.848936896597</v>
+        <v>1560.026978007576</v>
       </c>
       <c r="AB17" t="n">
-        <v>2037.108798841319</v>
+        <v>2134.497734842914</v>
       </c>
       <c r="AC17" t="n">
-        <v>1842.689994180059</v>
+        <v>1930.784266815892</v>
       </c>
       <c r="AD17" t="n">
-        <v>1488848.936896597</v>
+        <v>1560026.978007576</v>
       </c>
       <c r="AE17" t="n">
-        <v>2037108.798841319</v>
+        <v>2134497.734842914</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.464937623991333e-06</v>
+        <v>2.769850836241461e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.634375</v>
       </c>
       <c r="AH17" t="n">
-        <v>1842689.994180059</v>
+        <v>1930784.266815892</v>
       </c>
     </row>
     <row r="18">
@@ -16143,28 +16143,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1465.615298570299</v>
+        <v>1536.793339681279</v>
       </c>
       <c r="AB18" t="n">
-        <v>2005.319509887497</v>
+        <v>2102.708445889092</v>
       </c>
       <c r="AC18" t="n">
-        <v>1813.934630347442</v>
+        <v>1902.028902983275</v>
       </c>
       <c r="AD18" t="n">
-        <v>1465615.298570299</v>
+        <v>1536793.339681279</v>
       </c>
       <c r="AE18" t="n">
-        <v>2005319.509887497</v>
+        <v>2102708.445889092</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.469723535575582e-06</v>
+        <v>2.778899863986201e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.6</v>
       </c>
       <c r="AH18" t="n">
-        <v>1813934.630347442</v>
+        <v>1902028.902983275</v>
       </c>
     </row>
     <row r="19">
@@ -16249,28 +16249,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1448.662567724365</v>
+        <v>1519.840608835345</v>
       </c>
       <c r="AB19" t="n">
-        <v>1982.124035642389</v>
+        <v>2079.512971643985</v>
       </c>
       <c r="AC19" t="n">
-        <v>1792.952899609236</v>
+        <v>1881.047172245068</v>
       </c>
       <c r="AD19" t="n">
-        <v>1448662.567724365</v>
+        <v>1519840.608835345</v>
       </c>
       <c r="AE19" t="n">
-        <v>1982124.035642389</v>
+        <v>2079512.971643985</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.473312969263769e-06</v>
+        <v>2.785686634794756e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.57395833333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>1792952.899609236</v>
+        <v>1881047.172245068</v>
       </c>
     </row>
     <row r="20">
@@ -16355,28 +16355,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1438.906667113974</v>
+        <v>1510.084708224953</v>
       </c>
       <c r="AB20" t="n">
-        <v>1968.775582027293</v>
+        <v>2066.164518028888</v>
       </c>
       <c r="AC20" t="n">
-        <v>1780.878403672491</v>
+        <v>1868.972676308324</v>
       </c>
       <c r="AD20" t="n">
-        <v>1438906.667113974</v>
+        <v>1510084.708224953</v>
       </c>
       <c r="AE20" t="n">
-        <v>1968775.582027293</v>
+        <v>2066164.518028888</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.474958126370855e-06</v>
+        <v>2.78879723808201e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.5625</v>
       </c>
       <c r="AH20" t="n">
-        <v>1780878.403672491</v>
+        <v>1868972.676308325</v>
       </c>
     </row>
     <row r="21">
@@ -16461,28 +16461,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1445.082899841394</v>
+        <v>1516.260940952373</v>
       </c>
       <c r="AB21" t="n">
-        <v>1977.226176121107</v>
+        <v>2074.615112122701</v>
       </c>
       <c r="AC21" t="n">
-        <v>1788.522484926475</v>
+        <v>1876.616757562308</v>
       </c>
       <c r="AD21" t="n">
-        <v>1445082.899841394</v>
+        <v>1516260.940952373</v>
       </c>
       <c r="AE21" t="n">
-        <v>1977226.176121107</v>
+        <v>2074615.112122701</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.474509447159831e-06</v>
+        <v>2.787948891730941e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.565625</v>
       </c>
       <c r="AH21" t="n">
-        <v>1788522.484926475</v>
+        <v>1876616.757562308</v>
       </c>
     </row>
     <row r="22">
@@ -16567,28 +16567,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1451.477021764474</v>
+        <v>1522.655062875454</v>
       </c>
       <c r="AB22" t="n">
-        <v>1985.974895825015</v>
+        <v>2083.36383182661</v>
       </c>
       <c r="AC22" t="n">
-        <v>1796.436239100748</v>
+        <v>1884.530511736581</v>
       </c>
       <c r="AD22" t="n">
-        <v>1451477.021764474</v>
+        <v>1522655.062875454</v>
       </c>
       <c r="AE22" t="n">
-        <v>1985974.895825015</v>
+        <v>2083363.83182661</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.474509447159831e-06</v>
+        <v>2.787948891730941e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>10.56666666666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>1796436.239100748</v>
+        <v>1884530.511736581</v>
       </c>
     </row>
   </sheetData>
@@ -16864,28 +16864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1168.774934730943</v>
+        <v>1227.572558148287</v>
       </c>
       <c r="AB2" t="n">
-        <v>1599.169428409884</v>
+        <v>1679.618930737566</v>
       </c>
       <c r="AC2" t="n">
-        <v>1446.546942610834</v>
+        <v>1519.318457347947</v>
       </c>
       <c r="AD2" t="n">
-        <v>1168774.934730943</v>
+        <v>1227572.558148287</v>
       </c>
       <c r="AE2" t="n">
-        <v>1599169.428409884</v>
+        <v>1679618.930737566</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.427596852621546e-06</v>
+        <v>3.272861074132756e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.06041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1446546.942610834</v>
+        <v>1519318.457347947</v>
       </c>
     </row>
     <row r="3">
@@ -16970,28 +16970,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>858.4391017699302</v>
+        <v>917.0660434781306</v>
       </c>
       <c r="AB3" t="n">
-        <v>1174.554250701941</v>
+        <v>1254.770218785228</v>
       </c>
       <c r="AC3" t="n">
-        <v>1062.456441512192</v>
+        <v>1135.016710185428</v>
       </c>
       <c r="AD3" t="n">
-        <v>858439.1017699302</v>
+        <v>917066.0434781306</v>
       </c>
       <c r="AE3" t="n">
-        <v>1174554.250701941</v>
+        <v>1254770.218785228</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.648824248539329e-06</v>
+        <v>3.780039645801273e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.30729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1062456.441512192</v>
+        <v>1135016.710185428</v>
       </c>
     </row>
     <row r="4">
@@ -17076,28 +17076,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>843.5637492123756</v>
+        <v>892.5617836449204</v>
       </c>
       <c r="AB4" t="n">
-        <v>1154.201137078457</v>
+        <v>1221.242409429783</v>
       </c>
       <c r="AC4" t="n">
-        <v>1044.045800487158</v>
+        <v>1104.68874789829</v>
       </c>
       <c r="AD4" t="n">
-        <v>843563.7492123756</v>
+        <v>892561.7836449204</v>
       </c>
       <c r="AE4" t="n">
-        <v>1154201.137078457</v>
+        <v>1221242.409429783</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.665291012636769e-06</v>
+        <v>3.817790801621259e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.19583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1044045.800487158</v>
+        <v>1104688.74789829</v>
       </c>
     </row>
   </sheetData>
@@ -17373,28 +17373,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4369.322276155282</v>
+        <v>4494.585132633938</v>
       </c>
       <c r="AB2" t="n">
-        <v>5978.299499130443</v>
+        <v>6149.689665571756</v>
       </c>
       <c r="AC2" t="n">
-        <v>5407.738985529251</v>
+        <v>5562.771915033009</v>
       </c>
       <c r="AD2" t="n">
-        <v>4369322.276155283</v>
+        <v>4494585.132633938</v>
       </c>
       <c r="AE2" t="n">
-        <v>5978299.499130443</v>
+        <v>6149689.665571757</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.898872984668539e-07</v>
+        <v>1.548168188804558e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.503125</v>
       </c>
       <c r="AH2" t="n">
-        <v>5407738.985529251</v>
+        <v>5562771.91503301</v>
       </c>
     </row>
     <row r="3">
@@ -17479,28 +17479,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2208.921349328459</v>
+        <v>2288.688383995058</v>
       </c>
       <c r="AB3" t="n">
-        <v>3022.343640883575</v>
+        <v>3131.484416787628</v>
       </c>
       <c r="AC3" t="n">
-        <v>2733.895405683474</v>
+        <v>2832.619939115281</v>
       </c>
       <c r="AD3" t="n">
-        <v>2208921.349328459</v>
+        <v>2288688.383995058</v>
       </c>
       <c r="AE3" t="n">
-        <v>3022343.640883575</v>
+        <v>3131484.416787628</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.17083688138886e-06</v>
+        <v>2.294824106633528e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.83229166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2733895.405683474</v>
+        <v>2832619.939115281</v>
       </c>
     </row>
     <row r="4">
@@ -17585,28 +17585,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1832.55473565992</v>
+        <v>1900.841228313842</v>
       </c>
       <c r="AB4" t="n">
-        <v>2507.382235938973</v>
+        <v>2600.814827775506</v>
       </c>
       <c r="AC4" t="n">
-        <v>2268.081194474027</v>
+        <v>2352.596710879148</v>
       </c>
       <c r="AD4" t="n">
-        <v>1832554.73565992</v>
+        <v>1900841.228313842</v>
       </c>
       <c r="AE4" t="n">
-        <v>2507382.235938973</v>
+        <v>2600814.827775506</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.306734814235323e-06</v>
+        <v>2.561182176912108e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.39479166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2268081.194474027</v>
+        <v>2352596.710879148</v>
       </c>
     </row>
     <row r="5">
@@ -17691,28 +17691,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1662.5827744219</v>
+        <v>1730.954518421843</v>
       </c>
       <c r="AB5" t="n">
-        <v>2274.819099939411</v>
+        <v>2368.368336428594</v>
       </c>
       <c r="AC5" t="n">
-        <v>2057.713557769852</v>
+        <v>2142.334586425685</v>
       </c>
       <c r="AD5" t="n">
-        <v>1662582.774421901</v>
+        <v>1730954.518421843</v>
       </c>
       <c r="AE5" t="n">
-        <v>2274819.099939411</v>
+        <v>2368368.336428594</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.377171614669474e-06</v>
+        <v>2.699237332331097e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.76041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2057713.557769852</v>
+        <v>2142334.586425685</v>
       </c>
     </row>
     <row r="6">
@@ -17797,28 +17797,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1570.097379128186</v>
+        <v>1638.298530927535</v>
       </c>
       <c r="AB6" t="n">
-        <v>2148.276501930874</v>
+        <v>2241.59232664521</v>
       </c>
       <c r="AC6" t="n">
-        <v>1943.248007711598</v>
+        <v>2027.65790108478</v>
       </c>
       <c r="AD6" t="n">
-        <v>1570097.379128186</v>
+        <v>1638298.530927535</v>
       </c>
       <c r="AE6" t="n">
-        <v>2148276.501930874</v>
+        <v>2241592.326645209</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.420242240983512e-06</v>
+        <v>2.783655164673393e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.40416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1943248.007711598</v>
+        <v>2027657.90108478</v>
       </c>
     </row>
     <row r="7">
@@ -17903,28 +17903,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1505.956875639537</v>
+        <v>1562.933418481373</v>
       </c>
       <c r="AB7" t="n">
-        <v>2060.5166353784</v>
+        <v>2138.474454922267</v>
       </c>
       <c r="AC7" t="n">
-        <v>1863.863819651146</v>
+        <v>1934.381454312233</v>
       </c>
       <c r="AD7" t="n">
-        <v>1505956.875639537</v>
+        <v>1562933.418481373</v>
       </c>
       <c r="AE7" t="n">
-        <v>2060516.6353784</v>
+        <v>2138474.454922267</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.449474290611814e-06</v>
+        <v>2.840949577959861e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.175</v>
       </c>
       <c r="AH7" t="n">
-        <v>1863863.819651146</v>
+        <v>1934381.454312233</v>
       </c>
     </row>
     <row r="8">
@@ -18009,28 +18009,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1457.58269644698</v>
+        <v>1514.559239288815</v>
       </c>
       <c r="AB8" t="n">
-        <v>1994.328949288975</v>
+        <v>2072.286768832842</v>
       </c>
       <c r="AC8" t="n">
-        <v>1803.992993427095</v>
+        <v>1874.510628088182</v>
       </c>
       <c r="AD8" t="n">
-        <v>1457582.696446979</v>
+        <v>1514559.239288815</v>
       </c>
       <c r="AE8" t="n">
-        <v>1994328.949288975</v>
+        <v>2072286.768832842</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.470465390078944e-06</v>
+        <v>2.882091842819824e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.01458333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1803992.993427095</v>
+        <v>1874510.628088182</v>
       </c>
     </row>
     <row r="9">
@@ -18115,28 +18115,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1405.097570333419</v>
+        <v>1473.383973478789</v>
       </c>
       <c r="AB9" t="n">
-        <v>1922.516484260056</v>
+        <v>2015.948953627041</v>
       </c>
       <c r="AC9" t="n">
-        <v>1739.034209271108</v>
+        <v>1823.549614895003</v>
       </c>
       <c r="AD9" t="n">
-        <v>1405097.570333419</v>
+        <v>1473383.973478789</v>
       </c>
       <c r="AE9" t="n">
-        <v>1922516.484260056</v>
+        <v>2015948.953627041</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.486791800775602e-06</v>
+        <v>2.914091382155352e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.89375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1739034.209271108</v>
+        <v>1823549.614895003</v>
       </c>
     </row>
     <row r="10">
@@ -18221,28 +18221,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1369.975483567684</v>
+        <v>1438.261886713054</v>
       </c>
       <c r="AB10" t="n">
-        <v>1874.460895670065</v>
+        <v>1967.893365037051</v>
       </c>
       <c r="AC10" t="n">
-        <v>1695.564978609704</v>
+        <v>1780.080384233599</v>
       </c>
       <c r="AD10" t="n">
-        <v>1369975.483567684</v>
+        <v>1438261.886713054</v>
       </c>
       <c r="AE10" t="n">
-        <v>1874460.895670065</v>
+        <v>1967893.365037051</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.49938646045588e-06</v>
+        <v>2.93877674107133e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.803125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1695564.978609704</v>
+        <v>1780080.384233599</v>
       </c>
     </row>
     <row r="11">
@@ -18327,28 +18327,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1339.282187299089</v>
+        <v>1407.568590444459</v>
       </c>
       <c r="AB11" t="n">
-        <v>1832.46497362271</v>
+        <v>1925.897442989695</v>
       </c>
       <c r="AC11" t="n">
-        <v>1657.577088420901</v>
+        <v>1742.092494044795</v>
       </c>
       <c r="AD11" t="n">
-        <v>1339282.187299089</v>
+        <v>1407568.590444459</v>
       </c>
       <c r="AE11" t="n">
-        <v>1832464.97362271</v>
+        <v>1925897.442989695</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.509026817248192e-06</v>
+        <v>2.957671707155165e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.73333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1657577.088420901</v>
+        <v>1742092.494044795</v>
       </c>
     </row>
     <row r="12">
@@ -18433,28 +18433,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1310.002322118132</v>
+        <v>1378.288725263502</v>
       </c>
       <c r="AB12" t="n">
-        <v>1792.402970345639</v>
+        <v>1885.835439712624</v>
       </c>
       <c r="AC12" t="n">
-        <v>1621.338546509219</v>
+        <v>1705.853952133114</v>
       </c>
       <c r="AD12" t="n">
-        <v>1310002.322118132</v>
+        <v>1378288.725263502</v>
       </c>
       <c r="AE12" t="n">
-        <v>1792402.970345639</v>
+        <v>1885835.439712624</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.517889725912092e-06</v>
+        <v>2.975042885651594e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.67083333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1621338.546509219</v>
+        <v>1705853.952133114</v>
       </c>
     </row>
     <row r="13">
@@ -18539,28 +18539,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1282.395178251317</v>
+        <v>1350.681581396688</v>
       </c>
       <c r="AB13" t="n">
-        <v>1754.629658165834</v>
+        <v>1848.062127532818</v>
       </c>
       <c r="AC13" t="n">
-        <v>1587.170266228678</v>
+        <v>1671.685671852572</v>
       </c>
       <c r="AD13" t="n">
-        <v>1282395.178251317</v>
+        <v>1350681.581396688</v>
       </c>
       <c r="AE13" t="n">
-        <v>1754629.658165834</v>
+        <v>1848062.127532818</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.52473126944212e-06</v>
+        <v>2.988452216420768e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.62291666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1587170.266228678</v>
+        <v>1671685.671852572</v>
       </c>
     </row>
     <row r="14">
@@ -18645,28 +18645,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1275.998603035829</v>
+        <v>1344.2850061812</v>
       </c>
       <c r="AB14" t="n">
-        <v>1745.877581759021</v>
+        <v>1839.310051126006</v>
       </c>
       <c r="AC14" t="n">
-        <v>1579.253475710515</v>
+        <v>1663.76888133441</v>
       </c>
       <c r="AD14" t="n">
-        <v>1275998.603035829</v>
+        <v>1344285.0061812</v>
       </c>
       <c r="AE14" t="n">
-        <v>1745877.581759021</v>
+        <v>1839310.051126006</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.526752634575992e-06</v>
+        <v>2.992414064148023e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.609375</v>
       </c>
       <c r="AH14" t="n">
-        <v>1579253.475710515</v>
+        <v>1663768.88133441</v>
       </c>
     </row>
     <row r="15">
@@ -18751,28 +18751,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1282.543013863174</v>
+        <v>1350.829417008544</v>
       </c>
       <c r="AB15" t="n">
-        <v>1754.831933372023</v>
+        <v>1848.264402739008</v>
       </c>
       <c r="AC15" t="n">
-        <v>1587.353236573084</v>
+        <v>1671.868642196978</v>
       </c>
       <c r="AD15" t="n">
-        <v>1282543.013863174</v>
+        <v>1350829.417008544</v>
       </c>
       <c r="AE15" t="n">
-        <v>1754831.933372023</v>
+        <v>1848264.402739008</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.526752634575992e-06</v>
+        <v>2.992414064148023e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.60833333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1587353.236573084</v>
+        <v>1671868.642196978</v>
       </c>
     </row>
   </sheetData>
@@ -19048,28 +19048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5530.03879107694</v>
+        <v>5669.703977414423</v>
       </c>
       <c r="AB2" t="n">
-        <v>7566.44304204496</v>
+        <v>7757.539111585074</v>
       </c>
       <c r="AC2" t="n">
-        <v>6844.312337681411</v>
+        <v>7017.170466549626</v>
       </c>
       <c r="AD2" t="n">
-        <v>5530038.79107694</v>
+        <v>5669703.977414424</v>
       </c>
       <c r="AE2" t="n">
-        <v>7566443.04204496</v>
+        <v>7757539.111585074</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.97910105135792e-07</v>
+        <v>1.341873909571622e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.740625</v>
       </c>
       <c r="AH2" t="n">
-        <v>6844312.337681411</v>
+        <v>7017170.466549627</v>
       </c>
     </row>
     <row r="3">
@@ -19154,28 +19154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2529.453937015154</v>
+        <v>2610.889826531165</v>
       </c>
       <c r="AB3" t="n">
-        <v>3460.91046825629</v>
+        <v>3572.334644989989</v>
       </c>
       <c r="AC3" t="n">
-        <v>3130.606030584128</v>
+        <v>3231.396040275173</v>
       </c>
       <c r="AD3" t="n">
-        <v>2529453.937015154</v>
+        <v>2610889.826531165</v>
       </c>
       <c r="AE3" t="n">
-        <v>3460910.46825629</v>
+        <v>3572334.644989989</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.099806384845074e-06</v>
+        <v>2.114601124906688e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.43020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3130606.030584129</v>
+        <v>3231396.040275173</v>
       </c>
     </row>
     <row r="4">
@@ -19260,28 +19260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2047.615166852409</v>
+        <v>2129.05096685987</v>
       </c>
       <c r="AB4" t="n">
-        <v>2801.637405693145</v>
+        <v>2913.061459957289</v>
       </c>
       <c r="AC4" t="n">
-        <v>2534.253063816586</v>
+        <v>2635.042962726402</v>
       </c>
       <c r="AD4" t="n">
-        <v>2047615.166852409</v>
+        <v>2129050.96685987</v>
       </c>
       <c r="AE4" t="n">
-        <v>2801637.405693145</v>
+        <v>2913061.459957289</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.245147192594374e-06</v>
+        <v>2.394048343795867e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.74479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2534253.063816586</v>
+        <v>2635042.962726403</v>
       </c>
     </row>
     <row r="5">
@@ -19366,28 +19366,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1854.994332342901</v>
+        <v>1924.784344592908</v>
       </c>
       <c r="AB5" t="n">
-        <v>2538.085082085765</v>
+        <v>2633.574855764266</v>
       </c>
       <c r="AC5" t="n">
-        <v>2295.853804076285</v>
+        <v>2382.230167775649</v>
       </c>
       <c r="AD5" t="n">
-        <v>1854994.332342901</v>
+        <v>1924784.344592908</v>
       </c>
       <c r="AE5" t="n">
-        <v>2538085.082085765</v>
+        <v>2633574.855764266</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.321626317846103e-06</v>
+        <v>2.541094993567741e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.00833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2295853.804076285</v>
+        <v>2382230.167775649</v>
       </c>
     </row>
     <row r="6">
@@ -19472,28 +19472,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1734.351713855769</v>
+        <v>1804.226977451796</v>
       </c>
       <c r="AB6" t="n">
-        <v>2373.016529094977</v>
+        <v>2468.622947426127</v>
       </c>
       <c r="AC6" t="n">
-        <v>2146.539162107768</v>
+        <v>2233.021038057844</v>
       </c>
       <c r="AD6" t="n">
-        <v>1734351.713855769</v>
+        <v>1804226.977451796</v>
       </c>
       <c r="AE6" t="n">
-        <v>2373016.529094977</v>
+        <v>2468622.947426127</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.368549765211705e-06</v>
+        <v>2.631314850399886e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.59583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2146539.162107768</v>
+        <v>2233021.038057844</v>
       </c>
     </row>
     <row r="7">
@@ -19578,28 +19578,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1664.589823421692</v>
+        <v>1734.294494817127</v>
       </c>
       <c r="AB7" t="n">
-        <v>2277.565232925678</v>
+        <v>2372.938239481981</v>
       </c>
       <c r="AC7" t="n">
-        <v>2060.197603678132</v>
+        <v>2146.468344345556</v>
       </c>
       <c r="AD7" t="n">
-        <v>1664589.823421692</v>
+        <v>1734294.494817127</v>
       </c>
       <c r="AE7" t="n">
-        <v>2277565.232925678</v>
+        <v>2372938.239481981</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.398714838518163e-06</v>
+        <v>2.68931332979198e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.34583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2060197.603678132</v>
+        <v>2146468.344345557</v>
       </c>
     </row>
     <row r="8">
@@ -19684,28 +19684,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1610.453998057117</v>
+        <v>1668.683473895691</v>
       </c>
       <c r="AB8" t="n">
-        <v>2203.49420835781</v>
+        <v>2283.166346103317</v>
       </c>
       <c r="AC8" t="n">
-        <v>1993.195813735685</v>
+        <v>2065.264154475309</v>
       </c>
       <c r="AD8" t="n">
-        <v>1610453.998057117</v>
+        <v>1668683.473895691</v>
       </c>
       <c r="AE8" t="n">
-        <v>2203494.20835781</v>
+        <v>2283166.346103317</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.421719515635715e-06</v>
+        <v>2.733544493368779e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.16145833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1993195.813735685</v>
+        <v>2065264.154475308</v>
       </c>
     </row>
     <row r="9">
@@ -19790,28 +19790,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1566.543569840569</v>
+        <v>1624.773045679143</v>
       </c>
       <c r="AB9" t="n">
-        <v>2143.414023280556</v>
+        <v>2223.086161026063</v>
       </c>
       <c r="AC9" t="n">
-        <v>1938.849597199135</v>
+        <v>2010.917937938758</v>
       </c>
       <c r="AD9" t="n">
-        <v>1566543.569840569</v>
+        <v>1624773.045679143</v>
       </c>
       <c r="AE9" t="n">
-        <v>2143414.023280556</v>
+        <v>2223086.161026063</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.439849029390607e-06</v>
+        <v>2.768402165326653e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.021875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1938849.597199135</v>
+        <v>2010917.937938758</v>
       </c>
     </row>
     <row r="10">
@@ -19896,28 +19896,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1519.976239587219</v>
+        <v>1589.766162328675</v>
       </c>
       <c r="AB10" t="n">
-        <v>2079.698547622304</v>
+        <v>2175.188198831257</v>
       </c>
       <c r="AC10" t="n">
-        <v>1881.215037112475</v>
+        <v>1967.591290030612</v>
       </c>
       <c r="AD10" t="n">
-        <v>1519976.239587219</v>
+        <v>1589766.162328675</v>
       </c>
       <c r="AE10" t="n">
-        <v>2079698.547622304</v>
+        <v>2175188.198831257</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.453103379782839e-06</v>
+        <v>2.793886345665604e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.92083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1881215.037112475</v>
+        <v>1967591.290030612</v>
       </c>
     </row>
     <row r="11">
@@ -20002,28 +20002,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1488.111567060031</v>
+        <v>1557.901489801487</v>
       </c>
       <c r="AB11" t="n">
-        <v>2036.099896900469</v>
+        <v>2131.589548109421</v>
       </c>
       <c r="AC11" t="n">
-        <v>1841.777380424441</v>
+        <v>1928.153633342578</v>
       </c>
       <c r="AD11" t="n">
-        <v>1488111.567060031</v>
+        <v>1557901.489801487</v>
       </c>
       <c r="AE11" t="n">
-        <v>2036099.896900469</v>
+        <v>2131589.548109421</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.464224846203907e-06</v>
+        <v>2.815269623421274e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.8375</v>
       </c>
       <c r="AH11" t="n">
-        <v>1841777.380424441</v>
+        <v>1928153.633342578</v>
       </c>
     </row>
     <row r="12">
@@ -20108,28 +20108,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1458.942297198326</v>
+        <v>1528.732219939782</v>
       </c>
       <c r="AB12" t="n">
-        <v>1996.18921501832</v>
+        <v>2091.678866227272</v>
       </c>
       <c r="AC12" t="n">
-        <v>1805.67571800613</v>
+        <v>1892.051970924267</v>
       </c>
       <c r="AD12" t="n">
-        <v>1458942.297198326</v>
+        <v>1528732.219939782</v>
       </c>
       <c r="AE12" t="n">
-        <v>1996189.21501832</v>
+        <v>2091678.866227272</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.473975172929227e-06</v>
+        <v>2.834016606659123e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.76666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1805675.71800613</v>
+        <v>1892051.970924267</v>
       </c>
     </row>
     <row r="13">
@@ -20214,28 +20214,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1432.529093800787</v>
+        <v>1502.319016542242</v>
       </c>
       <c r="AB13" t="n">
-        <v>1960.049504861513</v>
+        <v>2055.539156070465</v>
       </c>
       <c r="AC13" t="n">
-        <v>1772.985131064287</v>
+        <v>1859.361383982424</v>
       </c>
       <c r="AD13" t="n">
-        <v>1432529.093800787</v>
+        <v>1502319.016542242</v>
       </c>
       <c r="AE13" t="n">
-        <v>1960049.504861513</v>
+        <v>2055539.156070465</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.481592615683383e-06</v>
+        <v>2.848662687313692e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.71041666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1772985.131064287</v>
+        <v>1859361.383982424</v>
       </c>
     </row>
     <row r="14">
@@ -20320,28 +20320,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1409.966818054475</v>
+        <v>1479.75674079593</v>
       </c>
       <c r="AB14" t="n">
-        <v>1929.178803808053</v>
+        <v>2024.668455017005</v>
       </c>
       <c r="AC14" t="n">
-        <v>1745.060686392068</v>
+        <v>1831.436939310205</v>
       </c>
       <c r="AD14" t="n">
-        <v>1409966.818054474</v>
+        <v>1479756.74079593</v>
       </c>
       <c r="AE14" t="n">
-        <v>1929178.803808053</v>
+        <v>2024668.455017005</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.487077174466375e-06</v>
+        <v>2.859207865384982e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.671875</v>
       </c>
       <c r="AH14" t="n">
-        <v>1745060.686392068</v>
+        <v>1831436.939310205</v>
       </c>
     </row>
     <row r="15">
@@ -20426,28 +20426,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1383.638942863839</v>
+        <v>1453.428865605295</v>
       </c>
       <c r="AB15" t="n">
-        <v>1893.155843468347</v>
+        <v>1988.645494677299</v>
       </c>
       <c r="AC15" t="n">
-        <v>1712.475706828641</v>
+        <v>1798.851959746778</v>
       </c>
       <c r="AD15" t="n">
-        <v>1383638.942863839</v>
+        <v>1453428.865605295</v>
       </c>
       <c r="AE15" t="n">
-        <v>1893155.843468347</v>
+        <v>1988645.494677299</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.494237570655282e-06</v>
+        <v>2.872975181200277e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.62083333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1712475.706828641</v>
+        <v>1798851.959746778</v>
       </c>
     </row>
     <row r="16">
@@ -20532,28 +20532,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1362.715612975204</v>
+        <v>1432.50553571666</v>
       </c>
       <c r="AB16" t="n">
-        <v>1864.527620442549</v>
+        <v>1960.017271651502</v>
       </c>
       <c r="AC16" t="n">
-        <v>1686.579721228463</v>
+        <v>1772.9559741466</v>
       </c>
       <c r="AD16" t="n">
-        <v>1362715.612975204</v>
+        <v>1432505.53571666</v>
       </c>
       <c r="AE16" t="n">
-        <v>1864527.620442549</v>
+        <v>1960017.271651502</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.49850333859761e-06</v>
+        <v>2.881176986366836e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.590625</v>
       </c>
       <c r="AH16" t="n">
-        <v>1686579.721228463</v>
+        <v>1772955.9741466</v>
       </c>
     </row>
     <row r="17">
@@ -20638,28 +20638,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1357.760448448282</v>
+        <v>1427.550371189738</v>
       </c>
       <c r="AB17" t="n">
-        <v>1857.747745730384</v>
+        <v>1953.237396939336</v>
       </c>
       <c r="AC17" t="n">
-        <v>1680.446908243213</v>
+        <v>1766.82316116135</v>
       </c>
       <c r="AD17" t="n">
-        <v>1357760.448448282</v>
+        <v>1427550.371189738</v>
       </c>
       <c r="AE17" t="n">
-        <v>1857747.745730384</v>
+        <v>1953237.396939336</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.499874478293358e-06</v>
+        <v>2.883813280884658e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.58125</v>
       </c>
       <c r="AH17" t="n">
-        <v>1680446.908243213</v>
+        <v>1766823.16116135</v>
       </c>
     </row>
     <row r="18">
@@ -20744,28 +20744,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1364.089552351668</v>
+        <v>1433.879475093124</v>
       </c>
       <c r="AB18" t="n">
-        <v>1866.407504911354</v>
+        <v>1961.897156120307</v>
       </c>
       <c r="AC18" t="n">
-        <v>1688.280192161999</v>
+        <v>1774.656445080136</v>
       </c>
       <c r="AD18" t="n">
-        <v>1364089.552351668</v>
+        <v>1433879.475093124</v>
       </c>
       <c r="AE18" t="n">
-        <v>1866407.504911354</v>
+        <v>1961897.156120307</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.499722129438275e-06</v>
+        <v>2.883520359271567e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.58229166666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1688280.192161999</v>
+        <v>1774656.445080136</v>
       </c>
     </row>
   </sheetData>
@@ -21041,28 +21041,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9073.28142276013</v>
+        <v>9254.588913496103</v>
       </c>
       <c r="AB2" t="n">
-        <v>12414.4639275468</v>
+        <v>12662.53683509374</v>
       </c>
       <c r="AC2" t="n">
-        <v>11229.64491411082</v>
+        <v>11454.04209153398</v>
       </c>
       <c r="AD2" t="n">
-        <v>9073281.422760131</v>
+        <v>9254588.913496103</v>
       </c>
       <c r="AE2" t="n">
-        <v>12414463.9275468</v>
+        <v>12662536.83509374</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.348231516822267e-07</v>
+        <v>9.963349671603346e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.64375</v>
       </c>
       <c r="AH2" t="n">
-        <v>11229644.91411082</v>
+        <v>11454042.09153398</v>
       </c>
     </row>
     <row r="3">
@@ -21147,28 +21147,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3233.929266508614</v>
+        <v>3330.672110023571</v>
       </c>
       <c r="AB3" t="n">
-        <v>4424.804693327372</v>
+        <v>4557.172519817578</v>
       </c>
       <c r="AC3" t="n">
-        <v>4002.507543648431</v>
+        <v>4122.242370557819</v>
       </c>
       <c r="AD3" t="n">
-        <v>3233929.266508614</v>
+        <v>3330672.110023571</v>
       </c>
       <c r="AE3" t="n">
-        <v>4424804.693327372</v>
+        <v>4557172.519817579</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.728869869479273e-07</v>
+        <v>1.812414666684843e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.74583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4002507.543648431</v>
+        <v>4122242.370557819</v>
       </c>
     </row>
     <row r="4">
@@ -21253,28 +21253,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2510.464795781456</v>
+        <v>2594.944191656451</v>
       </c>
       <c r="AB4" t="n">
-        <v>3434.928687478558</v>
+        <v>3550.517123882641</v>
       </c>
       <c r="AC4" t="n">
-        <v>3107.103914498166</v>
+        <v>3211.66075276123</v>
       </c>
       <c r="AD4" t="n">
-        <v>2510464.795781456</v>
+        <v>2594944.191656451</v>
       </c>
       <c r="AE4" t="n">
-        <v>3434928.687478558</v>
+        <v>3550517.123882642</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.13567203751494e-06</v>
+        <v>2.115670869227183e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.4875</v>
       </c>
       <c r="AH4" t="n">
-        <v>3107103.914498166</v>
+        <v>3211660.752761229</v>
       </c>
     </row>
     <row r="5">
@@ -21359,28 +21359,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2228.381573755903</v>
+        <v>2312.946220976918</v>
       </c>
       <c r="AB5" t="n">
-        <v>3048.969978469715</v>
+        <v>3164.675059526448</v>
       </c>
       <c r="AC5" t="n">
-        <v>2757.980562980691</v>
+        <v>2862.642913494467</v>
       </c>
       <c r="AD5" t="n">
-        <v>2228381.573755903</v>
+        <v>2312946.220976918</v>
       </c>
       <c r="AE5" t="n">
-        <v>3048969.978469715</v>
+        <v>3164675.059526448</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.220814353936169e-06</v>
+        <v>2.27428454697968e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.546875</v>
       </c>
       <c r="AH5" t="n">
-        <v>2757980.562980691</v>
+        <v>2862642.913494467</v>
       </c>
     </row>
     <row r="6">
@@ -21465,28 +21465,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2079.643801066127</v>
+        <v>2152.115682356324</v>
       </c>
       <c r="AB6" t="n">
-        <v>2845.46039602797</v>
+        <v>2944.619621242971</v>
       </c>
       <c r="AC6" t="n">
-        <v>2573.893649459809</v>
+        <v>2663.589257391136</v>
       </c>
       <c r="AD6" t="n">
-        <v>2079643.801066127</v>
+        <v>2152115.682356324</v>
       </c>
       <c r="AE6" t="n">
-        <v>2845460.39602797</v>
+        <v>2944619.621242971</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.274340784294247e-06</v>
+        <v>2.374000226948435e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.01979166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2573893.649459809</v>
+        <v>2663589.257391136</v>
       </c>
     </row>
     <row r="7">
@@ -21571,28 +21571,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1969.716166489667</v>
+        <v>2042.273299125884</v>
       </c>
       <c r="AB7" t="n">
-        <v>2695.052556735492</v>
+        <v>2794.328426603141</v>
       </c>
       <c r="AC7" t="n">
-        <v>2437.840523250676</v>
+        <v>2527.641643432715</v>
       </c>
       <c r="AD7" t="n">
-        <v>1969716.166489667</v>
+        <v>2042273.299125884</v>
       </c>
       <c r="AE7" t="n">
-        <v>2695052.556735492</v>
+        <v>2794328.426603141</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.311838695671472e-06</v>
+        <v>2.443855991761711e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.67604166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2437840.523250676</v>
+        <v>2527641.643432715</v>
       </c>
     </row>
     <row r="8">
@@ -21677,28 +21677,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1903.805367347163</v>
+        <v>1976.191907782788</v>
       </c>
       <c r="AB8" t="n">
-        <v>2604.870493569481</v>
+        <v>2703.912951662283</v>
       </c>
       <c r="AC8" t="n">
-        <v>2356.265309621908</v>
+        <v>2445.855294521297</v>
       </c>
       <c r="AD8" t="n">
-        <v>1903805.367347163</v>
+        <v>1976191.907782788</v>
       </c>
       <c r="AE8" t="n">
-        <v>2604870.493569481</v>
+        <v>2703912.951662283</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.337572556420548e-06</v>
+        <v>2.491796222515921e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.45208333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2356265.309621908</v>
+        <v>2445855.294521297</v>
       </c>
     </row>
     <row r="9">
@@ -21783,28 +21783,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1851.923859120824</v>
+        <v>1924.310399556449</v>
       </c>
       <c r="AB9" t="n">
-        <v>2533.8839251636</v>
+        <v>2632.926383256402</v>
       </c>
       <c r="AC9" t="n">
-        <v>2292.05359967441</v>
+        <v>2381.643584573799</v>
       </c>
       <c r="AD9" t="n">
-        <v>1851923.859120824</v>
+        <v>1924310.399556449</v>
       </c>
       <c r="AE9" t="n">
-        <v>2533883.9251636</v>
+        <v>2632926.383256402</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.358012594386957e-06</v>
+        <v>2.529874462943549e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.27916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2292053.59967441</v>
+        <v>2381643.584573799</v>
       </c>
     </row>
     <row r="10">
@@ -21889,28 +21889,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1810.752696393182</v>
+        <v>1871.217063098581</v>
       </c>
       <c r="AB10" t="n">
-        <v>2477.551723976133</v>
+        <v>2560.281738002056</v>
       </c>
       <c r="AC10" t="n">
-        <v>2241.097664705534</v>
+        <v>2315.932042305127</v>
       </c>
       <c r="AD10" t="n">
-        <v>1810752.696393182</v>
+        <v>1871217.063098581</v>
       </c>
       <c r="AE10" t="n">
-        <v>2477551.723976132</v>
+        <v>2560281.738002056</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.373894062734958e-06</v>
+        <v>2.55946043392329e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.14895833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2241097.664705534</v>
+        <v>2315932.042305127</v>
       </c>
     </row>
     <row r="11">
@@ -21995,28 +21995,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1774.839083016368</v>
+        <v>1835.303449721767</v>
       </c>
       <c r="AB11" t="n">
-        <v>2428.413133757174</v>
+        <v>2511.143147783097</v>
       </c>
       <c r="AC11" t="n">
-        <v>2196.648792570628</v>
+        <v>2271.483170170221</v>
       </c>
       <c r="AD11" t="n">
-        <v>1774839.083016368</v>
+        <v>1835303.449721767</v>
       </c>
       <c r="AE11" t="n">
-        <v>2428413.133757174</v>
+        <v>2511143.147783097</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.387128619691626e-06</v>
+        <v>2.58411540973974e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.04270833333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>2196648.792570628</v>
+        <v>2271483.170170221</v>
       </c>
     </row>
     <row r="12">
@@ -22101,28 +22101,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1736.680825885355</v>
+        <v>1809.152617667</v>
       </c>
       <c r="AB12" t="n">
-        <v>2376.203322927028</v>
+        <v>2475.362425672479</v>
       </c>
       <c r="AC12" t="n">
-        <v>2149.421812809182</v>
+        <v>2239.117309959282</v>
       </c>
       <c r="AD12" t="n">
-        <v>1736680.825885355</v>
+        <v>1809152.617667001</v>
       </c>
       <c r="AE12" t="n">
-        <v>2376203.322927028</v>
+        <v>2475362.425672479</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.396392809561294e-06</v>
+        <v>2.601373892811256e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.96875</v>
       </c>
       <c r="AH12" t="n">
-        <v>2149421.812809181</v>
+        <v>2239117.309959282</v>
       </c>
     </row>
     <row r="13">
@@ -22207,28 +22207,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1708.072263185047</v>
+        <v>1780.544054966692</v>
       </c>
       <c r="AB13" t="n">
-        <v>2337.059825319756</v>
+        <v>2436.218928065208</v>
       </c>
       <c r="AC13" t="n">
-        <v>2114.014115675303</v>
+        <v>2203.709612825404</v>
       </c>
       <c r="AD13" t="n">
-        <v>1708072.263185047</v>
+        <v>1780544.054966692</v>
       </c>
       <c r="AE13" t="n">
-        <v>2337059.825319756</v>
+        <v>2436218.928065208</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.406245201962368e-06</v>
+        <v>2.619728152585725e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.89270833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>2114014.115675303</v>
+        <v>2203709.612825404</v>
       </c>
     </row>
     <row r="14">
@@ -22313,28 +22313,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1684.510086301542</v>
+        <v>1756.981878083187</v>
       </c>
       <c r="AB14" t="n">
-        <v>2304.821015417864</v>
+        <v>2403.980118163316</v>
       </c>
       <c r="AC14" t="n">
-        <v>2084.852132542994</v>
+        <v>2174.547629693094</v>
       </c>
       <c r="AD14" t="n">
-        <v>1684510.086301542</v>
+        <v>1756981.878083187</v>
       </c>
       <c r="AE14" t="n">
-        <v>2304821.015417864</v>
+        <v>2403980.118163316</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.413744784237813e-06</v>
+        <v>2.63369930554838e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.83541666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>2084852.132542994</v>
+        <v>2174547.629693094</v>
       </c>
     </row>
     <row r="15">
@@ -22419,28 +22419,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1663.254744328439</v>
+        <v>1735.726536110084</v>
       </c>
       <c r="AB15" t="n">
-        <v>2275.738518810757</v>
+        <v>2374.897621556209</v>
       </c>
       <c r="AC15" t="n">
-        <v>2058.545228594529</v>
+        <v>2148.24072574463</v>
       </c>
       <c r="AD15" t="n">
-        <v>1663254.744328439</v>
+        <v>1735726.536110085</v>
       </c>
       <c r="AE15" t="n">
-        <v>2275738.518810757</v>
+        <v>2374897.621556209</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.419479758919036e-06</v>
+        <v>2.644383128402175e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.790625</v>
       </c>
       <c r="AH15" t="n">
-        <v>2058545.228594529</v>
+        <v>2148240.72574463</v>
       </c>
     </row>
     <row r="16">
@@ -22525,28 +22525,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1643.709380982072</v>
+        <v>1716.181172763717</v>
       </c>
       <c r="AB16" t="n">
-        <v>2248.995690399684</v>
+        <v>2348.154793145135</v>
       </c>
       <c r="AC16" t="n">
-        <v>2034.354698193213</v>
+        <v>2124.050195343314</v>
       </c>
       <c r="AD16" t="n">
-        <v>1643709.380982072</v>
+        <v>1716181.172763717</v>
       </c>
       <c r="AE16" t="n">
-        <v>2248995.690399684</v>
+        <v>2348154.793145135</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.425214733600259e-06</v>
+        <v>2.65506695125597e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.74791666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>2034354.698193213</v>
+        <v>2124050.195343314</v>
       </c>
     </row>
     <row r="17">
@@ -22631,28 +22631,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1623.17191722265</v>
+        <v>1695.643709004295</v>
       </c>
       <c r="AB17" t="n">
-        <v>2220.895426435086</v>
+        <v>2320.054529180538</v>
       </c>
       <c r="AC17" t="n">
-        <v>2008.93628398243</v>
+        <v>2098.63178113253</v>
       </c>
       <c r="AD17" t="n">
-        <v>1623171.91722265</v>
+        <v>1695643.709004295</v>
       </c>
       <c r="AE17" t="n">
-        <v>2220895.426435086</v>
+        <v>2320054.529180538</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.431096758914333e-06</v>
+        <v>2.666024718285504e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.703125</v>
       </c>
       <c r="AH17" t="n">
-        <v>2008936.28398243</v>
+        <v>2098631.78113253</v>
       </c>
     </row>
     <row r="18">
@@ -22737,28 +22737,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1606.828923550619</v>
+        <v>1679.300715332264</v>
       </c>
       <c r="AB18" t="n">
-        <v>2198.534221491019</v>
+        <v>2297.693324236471</v>
       </c>
       <c r="AC18" t="n">
-        <v>1988.709201054075</v>
+        <v>2078.404698204176</v>
       </c>
       <c r="AD18" t="n">
-        <v>1606828.923550619</v>
+        <v>1679300.715332264</v>
       </c>
       <c r="AE18" t="n">
-        <v>2198534.221491019</v>
+        <v>2297693.324236471</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.434625974102778e-06</v>
+        <v>2.672599378503224e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.67708333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>1988709.201054075</v>
+        <v>2078404.698204176</v>
       </c>
     </row>
     <row r="19">
@@ -22843,28 +22843,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1589.193957441564</v>
+        <v>1661.66574922321</v>
       </c>
       <c r="AB19" t="n">
-        <v>2174.405282860814</v>
+        <v>2273.564385606266</v>
       </c>
       <c r="AC19" t="n">
-        <v>1966.883094461559</v>
+        <v>2056.57859161166</v>
       </c>
       <c r="AD19" t="n">
-        <v>1589193.957441564</v>
+        <v>1661665.749223209</v>
       </c>
       <c r="AE19" t="n">
-        <v>2174405.282860814</v>
+        <v>2273564.385606266</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.439037493088334e-06</v>
+        <v>2.680817703775374e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.64375</v>
       </c>
       <c r="AH19" t="n">
-        <v>1966883.094461559</v>
+        <v>2056578.59161166</v>
       </c>
     </row>
     <row r="20">
@@ -22949,28 +22949,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1572.969383136449</v>
+        <v>1645.441174918094</v>
       </c>
       <c r="AB20" t="n">
-        <v>2152.206104518854</v>
+        <v>2251.365207264306</v>
       </c>
       <c r="AC20" t="n">
-        <v>1946.802574543814</v>
+        <v>2036.498071693914</v>
       </c>
       <c r="AD20" t="n">
-        <v>1572969.383136449</v>
+        <v>1645441.174918094</v>
       </c>
       <c r="AE20" t="n">
-        <v>2152206.104518855</v>
+        <v>2251365.207264306</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.44271375890963e-06</v>
+        <v>2.687666308168832e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.61666666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>1946802.574543814</v>
+        <v>2036498.071693914</v>
       </c>
     </row>
     <row r="21">
@@ -23055,28 +23055,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1556.852247220556</v>
+        <v>1629.324039002201</v>
       </c>
       <c r="AB21" t="n">
-        <v>2130.153928120876</v>
+        <v>2229.313030866328</v>
       </c>
       <c r="AC21" t="n">
-        <v>1926.855026910834</v>
+        <v>2016.550524060935</v>
       </c>
       <c r="AD21" t="n">
-        <v>1556852.247220556</v>
+        <v>1629324.039002201</v>
       </c>
       <c r="AE21" t="n">
-        <v>2130153.928120876</v>
+        <v>2229313.030866328</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.44506656903526e-06</v>
+        <v>2.692049414980646e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.6</v>
       </c>
       <c r="AH21" t="n">
-        <v>1926855.026910834</v>
+        <v>2016550.524060935</v>
       </c>
     </row>
     <row r="22">
@@ -23161,28 +23161,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1541.438314429331</v>
+        <v>1613.910106210977</v>
       </c>
       <c r="AB22" t="n">
-        <v>2109.0639052612</v>
+        <v>2208.223008006652</v>
       </c>
       <c r="AC22" t="n">
-        <v>1907.777806232853</v>
+        <v>1997.473303382953</v>
       </c>
       <c r="AD22" t="n">
-        <v>1541438.314429331</v>
+        <v>1613910.106210977</v>
       </c>
       <c r="AE22" t="n">
-        <v>2109063.9052612</v>
+        <v>2208223.008006652</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.448595784223705e-06</v>
+        <v>2.698624075198365e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>10.57395833333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>1907777.806232853</v>
+        <v>1997473.303382953</v>
       </c>
     </row>
     <row r="23">
@@ -23267,28 +23267,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1528.516926974064</v>
+        <v>1589.066545025483</v>
       </c>
       <c r="AB23" t="n">
-        <v>2091.384292893521</v>
+        <v>2174.230951572093</v>
       </c>
       <c r="AC23" t="n">
-        <v>1891.785511256053</v>
+        <v>1966.725401106358</v>
       </c>
       <c r="AD23" t="n">
-        <v>1528516.926974064</v>
+        <v>1589066.545025483</v>
       </c>
       <c r="AE23" t="n">
-        <v>2091384.292893521</v>
+        <v>2174230.951572093</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.450654493083631e-06</v>
+        <v>2.702459293658702e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>10.559375</v>
       </c>
       <c r="AH23" t="n">
-        <v>1891785.511256053</v>
+        <v>1966725.401106358</v>
       </c>
     </row>
     <row r="24">
@@ -23373,28 +23373,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1523.440174566756</v>
+        <v>1583.989792618176</v>
       </c>
       <c r="AB24" t="n">
-        <v>2084.438056279334</v>
+        <v>2167.284714957907</v>
       </c>
       <c r="AC24" t="n">
-        <v>1885.50221371522</v>
+        <v>1960.442103565525</v>
       </c>
       <c r="AD24" t="n">
-        <v>1523440.174566756</v>
+        <v>1583989.792618176</v>
       </c>
       <c r="AE24" t="n">
-        <v>2084438.056279334</v>
+        <v>2167284.714957907</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.451683847513594e-06</v>
+        <v>2.704376902888871e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>10.55208333333333</v>
       </c>
       <c r="AH24" t="n">
-        <v>1885502.21371522</v>
+        <v>1960442.103565525</v>
       </c>
     </row>
     <row r="25">
@@ -23479,28 +23479,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1529.811122859336</v>
+        <v>1590.360740910756</v>
       </c>
       <c r="AB25" t="n">
-        <v>2093.155068799644</v>
+        <v>2176.001727478216</v>
       </c>
       <c r="AC25" t="n">
-        <v>1893.387286794995</v>
+        <v>1968.3271766453</v>
       </c>
       <c r="AD25" t="n">
-        <v>1529811.122859336</v>
+        <v>1590360.740910756</v>
       </c>
       <c r="AE25" t="n">
-        <v>2093155.068799644</v>
+        <v>2176001.727478216</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.45138974624789e-06</v>
+        <v>2.703829014537394e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>10.553125</v>
       </c>
       <c r="AH25" t="n">
-        <v>1893387.286794995</v>
+        <v>1968327.1766453</v>
       </c>
     </row>
   </sheetData>
@@ -23776,28 +23776,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3436.067360294985</v>
+        <v>3547.186854331504</v>
       </c>
       <c r="AB2" t="n">
-        <v>4701.378950949217</v>
+        <v>4853.417544936086</v>
       </c>
       <c r="AC2" t="n">
-        <v>4252.685942297247</v>
+        <v>4390.214186261509</v>
       </c>
       <c r="AD2" t="n">
-        <v>3436067.360294985</v>
+        <v>3547186.854331505</v>
       </c>
       <c r="AE2" t="n">
-        <v>4701378.950949217</v>
+        <v>4853417.544936085</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.927922641805406e-07</v>
+        <v>1.789599732082535e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.559375</v>
       </c>
       <c r="AH2" t="n">
-        <v>4252685.942297246</v>
+        <v>4390214.186261509</v>
       </c>
     </row>
     <row r="3">
@@ -23882,28 +23882,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1917.362169645584</v>
+        <v>1995.034961868755</v>
       </c>
       <c r="AB3" t="n">
-        <v>2623.419508558087</v>
+        <v>2729.694849559579</v>
       </c>
       <c r="AC3" t="n">
-        <v>2373.044032653708</v>
+        <v>2469.176604268396</v>
       </c>
       <c r="AD3" t="n">
-        <v>1917362.169645584</v>
+        <v>1995034.961868755</v>
       </c>
       <c r="AE3" t="n">
-        <v>2623419.508558087</v>
+        <v>2729694.849559579</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.249145555656736e-06</v>
+        <v>2.503908962279413e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.26666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2373044.032653708</v>
+        <v>2469176.604268396</v>
       </c>
     </row>
     <row r="4">
@@ -23988,28 +23988,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1619.885822807161</v>
+        <v>1686.523472395795</v>
       </c>
       <c r="AB4" t="n">
-        <v>2216.399247083562</v>
+        <v>2307.575819096347</v>
       </c>
       <c r="AC4" t="n">
-        <v>2004.869213677787</v>
+        <v>2087.344021624794</v>
       </c>
       <c r="AD4" t="n">
-        <v>1619885.822807161</v>
+        <v>1686523.472395795</v>
       </c>
       <c r="AE4" t="n">
-        <v>2216399.247083562</v>
+        <v>2307575.819096347</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.374505552836755e-06</v>
+        <v>2.755192745045101e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.05625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2004869.213677787</v>
+        <v>2087344.021624794</v>
       </c>
     </row>
     <row r="5">
@@ -24094,28 +24094,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1478.724959669868</v>
+        <v>1545.447860604522</v>
       </c>
       <c r="AB5" t="n">
-        <v>2023.256726561357</v>
+        <v>2114.54994322679</v>
       </c>
       <c r="AC5" t="n">
-        <v>1830.15994423699</v>
+        <v>1912.74026443471</v>
       </c>
       <c r="AD5" t="n">
-        <v>1478724.959669868</v>
+        <v>1545447.860604523</v>
       </c>
       <c r="AE5" t="n">
-        <v>2023256.726561357</v>
+        <v>2114549.94322679</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.438776414335141e-06</v>
+        <v>2.884023516919895e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.51666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1830159.944236991</v>
+        <v>1912740.26443471</v>
       </c>
     </row>
     <row r="6">
@@ -24200,28 +24200,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1399.524130249036</v>
+        <v>1455.126637203132</v>
       </c>
       <c r="AB6" t="n">
-        <v>1914.89065765378</v>
+        <v>1990.968460677856</v>
       </c>
       <c r="AC6" t="n">
-        <v>1732.13618085322</v>
+        <v>1800.953225132546</v>
       </c>
       <c r="AD6" t="n">
-        <v>1399524.130249036</v>
+        <v>1455126.637203132</v>
       </c>
       <c r="AE6" t="n">
-        <v>1914890.65765378</v>
+        <v>1990968.460677856</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.4783889007537e-06</v>
+        <v>2.963426641169459e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.20833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1732136.18085322</v>
+        <v>1800953.225132546</v>
       </c>
     </row>
     <row r="7">
@@ -24306,28 +24306,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1341.211854423387</v>
+        <v>1396.814361377483</v>
       </c>
       <c r="AB7" t="n">
-        <v>1835.10522931308</v>
+        <v>1911.183032337157</v>
       </c>
       <c r="AC7" t="n">
-        <v>1659.965361813805</v>
+        <v>1728.78240609313</v>
       </c>
       <c r="AD7" t="n">
-        <v>1341211.854423387</v>
+        <v>1396814.361377483</v>
       </c>
       <c r="AE7" t="n">
-        <v>1835105.22931308</v>
+        <v>1911183.032337157</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.50543357019609e-06</v>
+        <v>3.017637609532614e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.00833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1659965.361813805</v>
+        <v>1728782.40609313</v>
       </c>
     </row>
     <row r="8">
@@ -24412,28 +24412,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1284.743118301531</v>
+        <v>1351.380678381614</v>
       </c>
       <c r="AB8" t="n">
-        <v>1757.842213326341</v>
+        <v>1849.018662869577</v>
       </c>
       <c r="AC8" t="n">
-        <v>1590.076219633516</v>
+        <v>1672.550916799297</v>
       </c>
       <c r="AD8" t="n">
-        <v>1284743.118301531</v>
+        <v>1351380.678381614</v>
       </c>
       <c r="AE8" t="n">
-        <v>1757842.213326341</v>
+        <v>1849018.662869577</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.52388757993325e-06</v>
+        <v>3.054628623239238e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1590076.219633516</v>
+        <v>1672550.916799297</v>
       </c>
     </row>
     <row r="9">
@@ -24518,28 +24518,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1244.976933197362</v>
+        <v>1311.614493277445</v>
       </c>
       <c r="AB9" t="n">
-        <v>1703.432364506547</v>
+        <v>1794.608814049783</v>
       </c>
       <c r="AC9" t="n">
-        <v>1540.85917042038</v>
+        <v>1623.333867586161</v>
       </c>
       <c r="AD9" t="n">
-        <v>1244976.933197362</v>
+        <v>1311614.493277445</v>
       </c>
       <c r="AE9" t="n">
-        <v>1703432.364506547</v>
+        <v>1794608.814049783</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.538523518690308e-06</v>
+        <v>3.083966323765182e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.771875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1540859.170420381</v>
+        <v>1623333.867586161</v>
       </c>
     </row>
     <row r="10">
@@ -24624,28 +24624,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1209.835599621615</v>
+        <v>1276.473159701698</v>
       </c>
       <c r="AB10" t="n">
-        <v>1655.350441581989</v>
+        <v>1746.526891125226</v>
       </c>
       <c r="AC10" t="n">
-        <v>1497.36611873634</v>
+        <v>1579.840815902121</v>
       </c>
       <c r="AD10" t="n">
-        <v>1209835.599621615</v>
+        <v>1276473.159701698</v>
       </c>
       <c r="AE10" t="n">
-        <v>1655350.441581989</v>
+        <v>1746526.891125225</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.550295904212289e-06</v>
+        <v>3.107564039405614e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.68958333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1497366.11873634</v>
+        <v>1579840.81590212</v>
       </c>
     </row>
     <row r="11">
@@ -24730,28 +24730,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1191.707054548684</v>
+        <v>1258.344614628766</v>
       </c>
       <c r="AB11" t="n">
-        <v>1630.546166438241</v>
+        <v>1721.722615981477</v>
       </c>
       <c r="AC11" t="n">
-        <v>1474.929128799292</v>
+        <v>1557.403825965072</v>
       </c>
       <c r="AD11" t="n">
-        <v>1191707.054548684</v>
+        <v>1258344.614628766</v>
       </c>
       <c r="AE11" t="n">
-        <v>1630546.166438241</v>
+        <v>1721722.615981477</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.555863924391605e-06</v>
+        <v>3.118725121127441e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.65104166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1474929.128799292</v>
+        <v>1557403.825965072</v>
       </c>
     </row>
     <row r="12">
@@ -24836,28 +24836,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1197.512257510417</v>
+        <v>1264.1498175905</v>
       </c>
       <c r="AB12" t="n">
-        <v>1638.489101237964</v>
+        <v>1729.6655507812</v>
       </c>
       <c r="AC12" t="n">
-        <v>1482.114001049708</v>
+        <v>1564.588698215489</v>
       </c>
       <c r="AD12" t="n">
-        <v>1197512.257510417</v>
+        <v>1264149.8175905</v>
       </c>
       <c r="AE12" t="n">
-        <v>1638489.101237964</v>
+        <v>1729665.5507812</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.555704838100767e-06</v>
+        <v>3.118406233078245e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.65208333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1482114.001049708</v>
+        <v>1564588.698215489</v>
       </c>
     </row>
   </sheetData>
@@ -25133,28 +25133,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2338.763570676791</v>
+        <v>2423.840311385746</v>
       </c>
       <c r="AB2" t="n">
-        <v>3199.9994963669</v>
+        <v>3316.405246325805</v>
       </c>
       <c r="AC2" t="n">
-        <v>2894.596035661023</v>
+        <v>2999.892184220341</v>
       </c>
       <c r="AD2" t="n">
-        <v>2338763.570676791</v>
+        <v>2423840.311385746</v>
       </c>
       <c r="AE2" t="n">
-        <v>3199999.4963669</v>
+        <v>3316405.246325805</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.075657233167369e-06</v>
+        <v>2.250342201148836e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.04895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2894596.035661023</v>
+        <v>2999892.184220341</v>
       </c>
     </row>
     <row r="3">
@@ -25239,28 +25239,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1483.933681427609</v>
+        <v>1547.71992412282</v>
       </c>
       <c r="AB3" t="n">
-        <v>2030.383529462883</v>
+        <v>2117.658680768893</v>
       </c>
       <c r="AC3" t="n">
-        <v>1836.606575072125</v>
+        <v>1915.552308428935</v>
       </c>
       <c r="AD3" t="n">
-        <v>1483933.681427609</v>
+        <v>1547719.92412282</v>
       </c>
       <c r="AE3" t="n">
-        <v>2030383.529462883</v>
+        <v>2117658.680768893</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.386041765246014e-06</v>
+        <v>2.899686053059447e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1836606.575072126</v>
+        <v>1915552.308428935</v>
       </c>
     </row>
     <row r="4">
@@ -25345,28 +25345,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1281.939997505343</v>
+        <v>1345.811491546576</v>
       </c>
       <c r="AB4" t="n">
-        <v>1754.006859788035</v>
+        <v>1841.398655746695</v>
       </c>
       <c r="AC4" t="n">
-        <v>1586.606906853953</v>
+        <v>1665.658152461475</v>
       </c>
       <c r="AD4" t="n">
-        <v>1281939.997505343</v>
+        <v>1345811.491546575</v>
       </c>
       <c r="AE4" t="n">
-        <v>1754006.859788035</v>
+        <v>1841398.655746695</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.493590917044754e-06</v>
+        <v>3.124685604522333e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.55729166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1586606.906853953</v>
+        <v>1665658.152461475</v>
       </c>
     </row>
     <row r="5">
@@ -25451,28 +25451,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1184.665305948064</v>
+        <v>1237.891640490975</v>
       </c>
       <c r="AB5" t="n">
-        <v>1620.91133534285</v>
+        <v>1693.737954444615</v>
       </c>
       <c r="AC5" t="n">
-        <v>1466.213832461075</v>
+        <v>1532.089981248569</v>
       </c>
       <c r="AD5" t="n">
-        <v>1184665.305948064</v>
+        <v>1237891.640490975</v>
       </c>
       <c r="AE5" t="n">
-        <v>1620911.33534285</v>
+        <v>1693737.954444615</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.548608356793879e-06</v>
+        <v>3.239785529153578e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.146875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1466213.832461075</v>
+        <v>1532089.981248569</v>
       </c>
     </row>
     <row r="6">
@@ -25557,28 +25557,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1107.135633147368</v>
+        <v>1170.921786334028</v>
       </c>
       <c r="AB6" t="n">
-        <v>1514.831816649171</v>
+        <v>1602.106845485633</v>
       </c>
       <c r="AC6" t="n">
-        <v>1370.258394147981</v>
+        <v>1449.204016723564</v>
       </c>
       <c r="AD6" t="n">
-        <v>1107135.633147368</v>
+        <v>1170921.786334028</v>
       </c>
       <c r="AE6" t="n">
-        <v>1514831.816649171</v>
+        <v>1602106.845485633</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.582414253507196e-06</v>
+        <v>3.310509579228199e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.909375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1370258.394147981</v>
+        <v>1449204.016723564</v>
       </c>
     </row>
     <row r="7">
@@ -25663,28 +25663,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1057.792108549718</v>
+        <v>1121.578261736379</v>
       </c>
       <c r="AB7" t="n">
-        <v>1447.317829411998</v>
+        <v>1534.592858248461</v>
       </c>
       <c r="AC7" t="n">
-        <v>1309.187847096248</v>
+        <v>1388.13346967183</v>
       </c>
       <c r="AD7" t="n">
-        <v>1057792.108549718</v>
+        <v>1121578.261736379</v>
       </c>
       <c r="AE7" t="n">
-        <v>1447317.829411998</v>
+        <v>1534592.858248461</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.602631505463199e-06</v>
+        <v>3.352805334664981e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.771875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1309187.847096248</v>
+        <v>1388133.469671831</v>
       </c>
     </row>
     <row r="8">
@@ -25769,28 +25769,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1059.826934734508</v>
+        <v>1123.613087921168</v>
       </c>
       <c r="AB8" t="n">
-        <v>1450.101968368223</v>
+        <v>1537.376997204685</v>
       </c>
       <c r="AC8" t="n">
-        <v>1311.706271738054</v>
+        <v>1390.651894313637</v>
       </c>
       <c r="AD8" t="n">
-        <v>1059826.934734508</v>
+        <v>1123613.087921168</v>
       </c>
       <c r="AE8" t="n">
-        <v>1450101.968368223</v>
+        <v>1537376.997204685</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.604951517982741e-06</v>
+        <v>3.357658945944613e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.75520833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1311706.271738054</v>
+        <v>1390651.894313637</v>
       </c>
     </row>
   </sheetData>
@@ -48279,28 +48279,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1727.515741725709</v>
+        <v>1809.553482494289</v>
       </c>
       <c r="AB2" t="n">
-        <v>2363.663250444823</v>
+        <v>2475.910906614083</v>
       </c>
       <c r="AC2" t="n">
-        <v>2138.078547244576</v>
+        <v>2239.613444649617</v>
       </c>
       <c r="AD2" t="n">
-        <v>1727515.741725709</v>
+        <v>1809553.482494289</v>
       </c>
       <c r="AE2" t="n">
-        <v>2363663.250444822</v>
+        <v>2475910.906614083</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.227058174352023e-06</v>
+        <v>2.667447492265125e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.553125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2138078.547244576</v>
+        <v>2239613.444649617</v>
       </c>
     </row>
     <row r="3">
@@ -48385,28 +48385,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1185.021965274756</v>
+        <v>1256.70897998587</v>
       </c>
       <c r="AB3" t="n">
-        <v>1621.399332368329</v>
+        <v>1719.484668503959</v>
       </c>
       <c r="AC3" t="n">
-        <v>1466.65525573535</v>
+        <v>1555.37946505383</v>
       </c>
       <c r="AD3" t="n">
-        <v>1185021.965274756</v>
+        <v>1256708.97998587</v>
       </c>
       <c r="AE3" t="n">
-        <v>1621399.332368329</v>
+        <v>1719484.668503959</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.499280636055154e-06</v>
+        <v>3.259219861323105e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.91041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1466655.25573535</v>
+        <v>1555379.46505383</v>
       </c>
     </row>
     <row r="4">
@@ -48491,28 +48491,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1040.989852379444</v>
+        <v>1092.316867902465</v>
       </c>
       <c r="AB4" t="n">
-        <v>1424.328241256603</v>
+        <v>1494.556128283313</v>
       </c>
       <c r="AC4" t="n">
-        <v>1288.392352968314</v>
+        <v>1351.917789022653</v>
       </c>
       <c r="AD4" t="n">
-        <v>1040989.852379444</v>
+        <v>1092316.867902465</v>
       </c>
       <c r="AE4" t="n">
-        <v>1424328.241256603</v>
+        <v>1494556.128283313</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.592878535356104e-06</v>
+        <v>3.462688194764954e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.21041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1288392.352968314</v>
+        <v>1351917.789022653</v>
       </c>
     </row>
     <row r="5">
@@ -48597,28 +48597,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>953.3971969405436</v>
+        <v>1014.904167303336</v>
       </c>
       <c r="AB5" t="n">
-        <v>1304.480105769871</v>
+        <v>1388.636656116267</v>
       </c>
       <c r="AC5" t="n">
-        <v>1179.982355324521</v>
+        <v>1256.107122620317</v>
       </c>
       <c r="AD5" t="n">
-        <v>953397.1969405436</v>
+        <v>1014904.167303336</v>
       </c>
       <c r="AE5" t="n">
-        <v>1304480.105769871</v>
+        <v>1388636.656116267</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.637106114146663e-06</v>
+        <v>3.558832572105608e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.90729166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1179982.355324521</v>
+        <v>1256107.122620317</v>
       </c>
     </row>
     <row r="6">
@@ -48703,28 +48703,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>958.3339609846475</v>
+        <v>1019.84093134744</v>
       </c>
       <c r="AB6" t="n">
-        <v>1311.234804129673</v>
+        <v>1395.391354476068</v>
       </c>
       <c r="AC6" t="n">
-        <v>1186.092394753142</v>
+        <v>1262.217162048938</v>
       </c>
       <c r="AD6" t="n">
-        <v>958333.9609846475</v>
+        <v>1019840.93134744</v>
       </c>
       <c r="AE6" t="n">
-        <v>1311234.804129672</v>
+        <v>1395391.354476068</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.638306087214624e-06</v>
+        <v>3.561441140483068e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="AH6" t="n">
-        <v>1186092.394753142</v>
+        <v>1262217.162048938</v>
       </c>
     </row>
   </sheetData>
@@ -49000,28 +49000,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>879.0150964526407</v>
+        <v>936.0041091528637</v>
       </c>
       <c r="AB2" t="n">
-        <v>1202.707234375646</v>
+        <v>1280.682115729889</v>
       </c>
       <c r="AC2" t="n">
-        <v>1087.922543937039</v>
+        <v>1158.455612053266</v>
       </c>
       <c r="AD2" t="n">
-        <v>879015.0964526407</v>
+        <v>936004.1091528637</v>
       </c>
       <c r="AE2" t="n">
-        <v>1202707.234375646</v>
+        <v>1280682.115729889</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.561715796857439e-06</v>
+        <v>3.71458313218533e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.27291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1087922.543937039</v>
+        <v>1158455.612053266</v>
       </c>
     </row>
     <row r="3">
@@ -49106,28 +49106,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>763.705657371129</v>
+        <v>820.7799214173723</v>
       </c>
       <c r="AB3" t="n">
-        <v>1044.935772730898</v>
+        <v>1123.027298737791</v>
       </c>
       <c r="AC3" t="n">
-        <v>945.2085691580286</v>
+        <v>1015.847149524969</v>
       </c>
       <c r="AD3" t="n">
-        <v>763705.6573711289</v>
+        <v>820779.9214173723</v>
       </c>
       <c r="AE3" t="n">
-        <v>1044935.772730898</v>
+        <v>1123027.298737791</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.664198796250652e-06</v>
+        <v>3.958341709544806e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.51666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>945208.5691580286</v>
+        <v>1015847.149524969</v>
       </c>
     </row>
   </sheetData>
@@ -49403,28 +49403,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4913.898332163079</v>
+        <v>5040.654151475768</v>
       </c>
       <c r="AB2" t="n">
-        <v>6723.412483960344</v>
+        <v>6896.845388016055</v>
       </c>
       <c r="AC2" t="n">
-        <v>6081.739432859601</v>
+        <v>6238.620143966838</v>
       </c>
       <c r="AD2" t="n">
-        <v>4913898.332163079</v>
+        <v>5040654.151475769</v>
       </c>
       <c r="AE2" t="n">
-        <v>6723412.483960344</v>
+        <v>6896845.388016055</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.42883080001861e-07</v>
+        <v>1.441622706477412e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.57395833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>6081739.432859601</v>
+        <v>6238620.143966839</v>
       </c>
     </row>
     <row r="3">
@@ -49509,28 +49509,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2371.385873145192</v>
+        <v>2451.963415907247</v>
       </c>
       <c r="AB3" t="n">
-        <v>3244.634769798582</v>
+        <v>3354.88451863593</v>
       </c>
       <c r="AC3" t="n">
-        <v>2934.971381242383</v>
+        <v>3034.699048787185</v>
       </c>
       <c r="AD3" t="n">
-        <v>2371385.873145192</v>
+        <v>2451963.415907247</v>
       </c>
       <c r="AE3" t="n">
-        <v>3244634.769798581</v>
+        <v>3354884.51863593</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.134943164476746e-06</v>
+        <v>2.202445957534671e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.12291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2934971.381242383</v>
+        <v>3034699.048787185</v>
       </c>
     </row>
     <row r="4">
@@ -49615,28 +49615,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1939.123832528229</v>
+        <v>2019.701285781733</v>
       </c>
       <c r="AB4" t="n">
-        <v>2653.194775770932</v>
+        <v>2763.444402138726</v>
       </c>
       <c r="AC4" t="n">
-        <v>2399.977590153609</v>
+        <v>2499.705146917183</v>
       </c>
       <c r="AD4" t="n">
-        <v>1939123.832528229</v>
+        <v>2019701.285781733</v>
       </c>
       <c r="AE4" t="n">
-        <v>2653194.775770932</v>
+        <v>2763444.402138726</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.275426232422416e-06</v>
+        <v>2.475064335955109e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.56666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2399977.590153608</v>
+        <v>2499705.146917183</v>
       </c>
     </row>
     <row r="5">
@@ -49721,28 +49721,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1754.064642248883</v>
+        <v>1834.556754647815</v>
       </c>
       <c r="AB5" t="n">
-        <v>2399.988627395458</v>
+        <v>2510.121486641054</v>
       </c>
       <c r="AC5" t="n">
-        <v>2170.937081202029</v>
+        <v>2270.559014933664</v>
       </c>
       <c r="AD5" t="n">
-        <v>1754064.642248883</v>
+        <v>1834556.754647815</v>
       </c>
       <c r="AE5" t="n">
-        <v>2399988.627395459</v>
+        <v>2510121.486641054</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.348360486755656e-06</v>
+        <v>2.616598959581931e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.8875</v>
       </c>
       <c r="AH5" t="n">
-        <v>2170937.081202029</v>
+        <v>2270559.014933664</v>
       </c>
     </row>
     <row r="6">
@@ -49827,28 +49827,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1653.445769782646</v>
+        <v>1722.585307589567</v>
       </c>
       <c r="AB6" t="n">
-        <v>2262.317447095787</v>
+        <v>2356.917212944351</v>
       </c>
       <c r="AC6" t="n">
-        <v>2046.405045127444</v>
+        <v>2131.976342095026</v>
       </c>
       <c r="AD6" t="n">
-        <v>1653445.769782646</v>
+        <v>1722585.307589567</v>
       </c>
       <c r="AE6" t="n">
-        <v>2262317.447095787</v>
+        <v>2356917.212944351</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.39344431907557e-06</v>
+        <v>2.704087661528468e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.50208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2046405.045127444</v>
+        <v>2131976.342095026</v>
       </c>
     </row>
     <row r="7">
@@ -49933,28 +49933,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1585.427072104951</v>
+        <v>1654.39601771128</v>
       </c>
       <c r="AB7" t="n">
-        <v>2169.251264160008</v>
+        <v>2263.617618233725</v>
       </c>
       <c r="AC7" t="n">
-        <v>1962.220968071847</v>
+        <v>2047.581129756778</v>
       </c>
       <c r="AD7" t="n">
-        <v>1585427.072104951</v>
+        <v>1654396.01771128</v>
       </c>
       <c r="AE7" t="n">
-        <v>2169251.264160008</v>
+        <v>2263617.618233725</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.42391052658186e-06</v>
+        <v>2.763209719499166e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.25625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1962220.968071847</v>
+        <v>2047581.129756778</v>
       </c>
     </row>
     <row r="8">
@@ -50039,28 +50039,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1533.473516743306</v>
+        <v>1591.089887757625</v>
       </c>
       <c r="AB8" t="n">
-        <v>2098.166117685107</v>
+        <v>2176.999378361792</v>
       </c>
       <c r="AC8" t="n">
-        <v>1897.920088207881</v>
+        <v>1969.229613128759</v>
       </c>
       <c r="AD8" t="n">
-        <v>1533473.516743306</v>
+        <v>1591089.887757625</v>
       </c>
       <c r="AE8" t="n">
-        <v>2098166.117685107</v>
+        <v>2176999.378361791</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.446221638139497e-06</v>
+        <v>2.806506176093868e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.08229166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1897920.088207881</v>
+        <v>1969229.613128759</v>
       </c>
     </row>
     <row r="9">
@@ -50145,28 +50145,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1480.518459547491</v>
+        <v>1549.572656499841</v>
       </c>
       <c r="AB9" t="n">
-        <v>2025.710672217549</v>
+        <v>2120.193670943916</v>
       </c>
       <c r="AC9" t="n">
-        <v>1832.379688763891</v>
+        <v>1917.845362699534</v>
       </c>
       <c r="AD9" t="n">
-        <v>1480518.459547491</v>
+        <v>1549572.656499841</v>
       </c>
       <c r="AE9" t="n">
-        <v>2025710.67221755</v>
+        <v>2120193.670943916</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.462531830036804e-06</v>
+        <v>2.838157378845858e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.95833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1832379.688763891</v>
+        <v>1917845.362699534</v>
       </c>
     </row>
     <row r="10">
@@ -50251,28 +50251,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1444.859097815175</v>
+        <v>1513.913294767525</v>
       </c>
       <c r="AB10" t="n">
-        <v>1976.919960315385</v>
+        <v>2071.402959041752</v>
       </c>
       <c r="AC10" t="n">
-        <v>1788.245493927475</v>
+        <v>1873.711167863118</v>
       </c>
       <c r="AD10" t="n">
-        <v>1444859.097815175</v>
+        <v>1513913.294767525</v>
       </c>
       <c r="AE10" t="n">
-        <v>1976919.960315385</v>
+        <v>2071402.959041752</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.476380106176027e-06</v>
+        <v>2.865031041559811e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.85625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1788245.493927475</v>
+        <v>1873711.167863118</v>
       </c>
     </row>
     <row r="11">
@@ -50357,28 +50357,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1413.032104081247</v>
+        <v>1482.086301033596</v>
       </c>
       <c r="AB11" t="n">
-        <v>1933.372863380757</v>
+        <v>2027.855862107124</v>
       </c>
       <c r="AC11" t="n">
-        <v>1748.854470805554</v>
+        <v>1834.320144741197</v>
       </c>
       <c r="AD11" t="n">
-        <v>1413032.104081247</v>
+        <v>1482086.301033596</v>
       </c>
       <c r="AE11" t="n">
-        <v>1933372.863380757</v>
+        <v>2027855.862107124</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.487150987617644e-06</v>
+        <v>2.885932779226219e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.77708333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1748854.470805554</v>
+        <v>1834320.144741197</v>
       </c>
     </row>
     <row r="12">
@@ -50463,28 +50463,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1385.684829809116</v>
+        <v>1454.739026761466</v>
       </c>
       <c r="AB12" t="n">
-        <v>1895.955116245037</v>
+        <v>1990.438114971403</v>
       </c>
       <c r="AC12" t="n">
-        <v>1715.007820940328</v>
+        <v>1800.473494875972</v>
       </c>
       <c r="AD12" t="n">
-        <v>1385684.829809116</v>
+        <v>1454739.026761466</v>
       </c>
       <c r="AE12" t="n">
-        <v>1895955.116245037</v>
+        <v>1990438.114971403</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.495613823036058e-06</v>
+        <v>2.902355573106969e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.71666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1715007.820940328</v>
+        <v>1800473.494875972</v>
       </c>
     </row>
     <row r="13">
@@ -50569,28 +50569,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1358.863380123639</v>
+        <v>1427.917577075988</v>
       </c>
       <c r="AB13" t="n">
-        <v>1859.256825506518</v>
+        <v>1953.739824232885</v>
       </c>
       <c r="AC13" t="n">
-        <v>1681.811963563519</v>
+        <v>1767.277637499162</v>
       </c>
       <c r="AD13" t="n">
-        <v>1358863.380123639</v>
+        <v>1427917.577075988</v>
       </c>
       <c r="AE13" t="n">
-        <v>1859256.825506518</v>
+        <v>1953739.824232884</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.502076351901029e-06</v>
+        <v>2.914896615706814e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.67083333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1681811.963563519</v>
+        <v>1767277.637499162</v>
       </c>
     </row>
     <row r="14">
@@ -50675,28 +50675,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1334.083954805208</v>
+        <v>1403.138151757558</v>
       </c>
       <c r="AB14" t="n">
-        <v>1825.35252259475</v>
+        <v>1919.835521321117</v>
       </c>
       <c r="AC14" t="n">
-        <v>1651.143439736663</v>
+        <v>1736.609113672306</v>
       </c>
       <c r="AD14" t="n">
-        <v>1334083.954805208</v>
+        <v>1403138.151757558</v>
       </c>
       <c r="AE14" t="n">
-        <v>1825352.52259475</v>
+        <v>1919835.521321117</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.50869275050088e-06</v>
+        <v>2.927736254559036e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.62395833333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1651143.439736663</v>
+        <v>1736609.113672306</v>
       </c>
     </row>
     <row r="15">
@@ -50781,28 +50781,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1318.211164308996</v>
+        <v>1387.265361261346</v>
       </c>
       <c r="AB15" t="n">
-        <v>1803.634670379737</v>
+        <v>1898.117669106104</v>
       </c>
       <c r="AC15" t="n">
-        <v>1631.498308855853</v>
+        <v>1716.963982791497</v>
       </c>
       <c r="AD15" t="n">
-        <v>1318211.164308996</v>
+        <v>1387265.361261346</v>
       </c>
       <c r="AE15" t="n">
-        <v>1803634.670379737</v>
+        <v>1898117.669106104</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.512231754403126e-06</v>
+        <v>2.934603968363713e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.6</v>
       </c>
       <c r="AH15" t="n">
-        <v>1631498.308855853</v>
+        <v>1716963.982791497</v>
       </c>
     </row>
     <row r="16">
@@ -50887,28 +50887,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1319.407986258386</v>
+        <v>1388.462183210736</v>
       </c>
       <c r="AB16" t="n">
-        <v>1805.272214970951</v>
+        <v>1899.755213697318</v>
       </c>
       <c r="AC16" t="n">
-        <v>1632.97956848959</v>
+        <v>1718.445242425234</v>
       </c>
       <c r="AD16" t="n">
-        <v>1319407.986258386</v>
+        <v>1388462.183210736</v>
       </c>
       <c r="AE16" t="n">
-        <v>1805272.214970951</v>
+        <v>1899755.213697318</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.513462712282168e-06</v>
+        <v>2.936992738382731e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.590625</v>
       </c>
       <c r="AH16" t="n">
-        <v>1632979.56848959</v>
+        <v>1718445.242425234</v>
       </c>
     </row>
   </sheetData>
@@ -51184,28 +51184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7970.323800333423</v>
+        <v>8138.054089336593</v>
       </c>
       <c r="AB2" t="n">
-        <v>10905.34864948637</v>
+        <v>11134.84463063863</v>
       </c>
       <c r="AC2" t="n">
-        <v>9864.557480131944</v>
+        <v>10072.15068694265</v>
       </c>
       <c r="AD2" t="n">
-        <v>7970323.800333423</v>
+        <v>8138054.089336594</v>
       </c>
       <c r="AE2" t="n">
-        <v>10905348.64948637</v>
+        <v>11134844.63063863</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.735229536706943e-07</v>
+        <v>1.076154013560922e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.92916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>9864557.480131943</v>
+        <v>10072150.68694265</v>
       </c>
     </row>
     <row r="3">
@@ -51290,28 +51290,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3048.321455351957</v>
+        <v>3144.045508784361</v>
       </c>
       <c r="AB3" t="n">
-        <v>4170.847897664102</v>
+        <v>4301.821770617514</v>
       </c>
       <c r="AC3" t="n">
-        <v>3772.788028132672</v>
+        <v>3891.261938474391</v>
       </c>
       <c r="AD3" t="n">
-        <v>3048321.455351957</v>
+        <v>3144045.508784361</v>
       </c>
       <c r="AE3" t="n">
-        <v>4170847.897664101</v>
+        <v>4301821.770617514</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.003220347604942e-06</v>
+        <v>1.882434864465667e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.39479166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3772788.028132672</v>
+        <v>3891261.938474391</v>
       </c>
     </row>
     <row r="4">
@@ -51396,28 +51396,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2393.91583138755</v>
+        <v>2477.653054115829</v>
       </c>
       <c r="AB4" t="n">
-        <v>3275.461252617384</v>
+        <v>3390.034214979764</v>
       </c>
       <c r="AC4" t="n">
-        <v>2962.855827806199</v>
+        <v>3066.494107444871</v>
       </c>
       <c r="AD4" t="n">
-        <v>2393915.83138755</v>
+        <v>2477653.054115829</v>
       </c>
       <c r="AE4" t="n">
-        <v>3275461.252617384</v>
+        <v>3390034.214979764</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.161725010860881e-06</v>
+        <v>2.179851782898094e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.29479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2962855.827806199</v>
+        <v>3066494.107444871</v>
       </c>
     </row>
     <row r="5">
@@ -51502,28 +51502,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2133.103285681234</v>
+        <v>2204.939018559964</v>
       </c>
       <c r="AB5" t="n">
-        <v>2918.606021344369</v>
+        <v>3016.894840238085</v>
       </c>
       <c r="AC5" t="n">
-        <v>2640.05835895654</v>
+        <v>2728.96663092415</v>
       </c>
       <c r="AD5" t="n">
-        <v>2133103.285681234</v>
+        <v>2204939.018559963</v>
       </c>
       <c r="AE5" t="n">
-        <v>2918606.021344369</v>
+        <v>3016894.840238085</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.244758323698417e-06</v>
+        <v>2.335654845874856e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.40833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2640058.35895654</v>
+        <v>2728966.63092415</v>
       </c>
     </row>
     <row r="6">
@@ -51608,28 +51608,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1983.020217292375</v>
+        <v>2066.757350512104</v>
       </c>
       <c r="AB6" t="n">
-        <v>2713.255745977056</v>
+        <v>2827.82858586988</v>
       </c>
       <c r="AC6" t="n">
-        <v>2454.306425659362</v>
+        <v>2557.944594516806</v>
       </c>
       <c r="AD6" t="n">
-        <v>1983020.217292375</v>
+        <v>2066757.350512104</v>
       </c>
       <c r="AE6" t="n">
-        <v>2713255.745977056</v>
+        <v>2827828.58586988</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.296802417994801e-06</v>
+        <v>2.433309979990649e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.909375</v>
       </c>
       <c r="AH6" t="n">
-        <v>2454306.425659362</v>
+        <v>2557944.594516806</v>
       </c>
     </row>
     <row r="7">
@@ -51714,28 +51714,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1894.236032547897</v>
+        <v>1966.157016772643</v>
       </c>
       <c r="AB7" t="n">
-        <v>2591.777307527869</v>
+        <v>2690.182771074057</v>
       </c>
       <c r="AC7" t="n">
-        <v>2344.421718879706</v>
+        <v>2433.435503097982</v>
       </c>
       <c r="AD7" t="n">
-        <v>1894236.032547897</v>
+        <v>1966157.016772643</v>
       </c>
       <c r="AE7" t="n">
-        <v>2591777.307527869</v>
+        <v>2690182.771074057</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.332091575950754e-06</v>
+        <v>2.499526281755772e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.59479166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2344421.718879706</v>
+        <v>2433435.503097982</v>
       </c>
     </row>
     <row r="8">
@@ -51820,28 +51820,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1828.972175544841</v>
+        <v>1900.722567568996</v>
       </c>
       <c r="AB8" t="n">
-        <v>2502.480419138124</v>
+        <v>2600.652470909465</v>
       </c>
       <c r="AC8" t="n">
-        <v>2263.647200188908</v>
+        <v>2352.449849124533</v>
       </c>
       <c r="AD8" t="n">
-        <v>1828972.175544841</v>
+        <v>1900722.567568996</v>
       </c>
       <c r="AE8" t="n">
-        <v>2502480.419138124</v>
+        <v>2600652.470909465</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.358484307531257e-06</v>
+        <v>2.549049398201958e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.36979166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2263647.200188908</v>
+        <v>2352449.849124533</v>
       </c>
     </row>
     <row r="9">
@@ -51926,28 +51926,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1778.409348990134</v>
+        <v>1838.343592019307</v>
       </c>
       <c r="AB9" t="n">
-        <v>2433.298129171499</v>
+        <v>2515.302804596204</v>
       </c>
       <c r="AC9" t="n">
-        <v>2201.067570878743</v>
+        <v>2275.2458351752</v>
       </c>
       <c r="AD9" t="n">
-        <v>1778409.348990133</v>
+        <v>1838343.592019307</v>
       </c>
       <c r="AE9" t="n">
-        <v>2433298.129171499</v>
+        <v>2515302.804596204</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.37850126687602e-06</v>
+        <v>2.58660906516957e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.20416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2201067.570878744</v>
+        <v>2275245.8351752</v>
       </c>
     </row>
     <row r="10">
@@ -52032,28 +52032,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1741.21146602585</v>
+        <v>1801.145709055023</v>
       </c>
       <c r="AB10" t="n">
-        <v>2382.40234464499</v>
+        <v>2464.407020069695</v>
       </c>
       <c r="AC10" t="n">
-        <v>2155.029208594763</v>
+        <v>2229.207472891219</v>
       </c>
       <c r="AD10" t="n">
-        <v>1741211.46602585</v>
+        <v>1801145.709055024</v>
       </c>
       <c r="AE10" t="n">
-        <v>2382402.34464499</v>
+        <v>2464407.020069695</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.392883822849664e-06</v>
+        <v>2.613596381435187e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.08854166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2155029.208594763</v>
+        <v>2229207.472891219</v>
       </c>
     </row>
     <row r="11">
@@ -52138,28 +52138,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1697.672436324355</v>
+        <v>1769.508079694531</v>
       </c>
       <c r="AB11" t="n">
-        <v>2322.830323400978</v>
+        <v>2421.119019824968</v>
       </c>
       <c r="AC11" t="n">
-        <v>2101.142657448422</v>
+        <v>2190.050818634759</v>
       </c>
       <c r="AD11" t="n">
-        <v>1697672.436324355</v>
+        <v>1769508.079694531</v>
       </c>
       <c r="AE11" t="n">
-        <v>2322830.323400978</v>
+        <v>2421119.019824968</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.404300903364826e-06</v>
+        <v>2.635019302594493e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.99791666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2101142.657448422</v>
+        <v>2190050.818634759</v>
       </c>
     </row>
     <row r="12">
@@ -52244,28 +52244,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1666.860215715715</v>
+        <v>1738.695859085891</v>
       </c>
       <c r="AB12" t="n">
-        <v>2280.671683825</v>
+        <v>2378.960380248991</v>
       </c>
       <c r="AC12" t="n">
-        <v>2063.007579263554</v>
+        <v>2151.915740449891</v>
       </c>
       <c r="AD12" t="n">
-        <v>1666860.215715715</v>
+        <v>1738695.85908589</v>
       </c>
       <c r="AE12" t="n">
-        <v>2280671.683825</v>
+        <v>2378960.380248991</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.415569710107062e-06</v>
+        <v>2.656164003998482e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.91145833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>2063007.579263554</v>
+        <v>2151915.740449891</v>
       </c>
     </row>
     <row r="13">
@@ -52350,28 +52350,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1641.0007679492</v>
+        <v>1712.836411319375</v>
       </c>
       <c r="AB13" t="n">
-        <v>2245.289646552535</v>
+        <v>2343.578342976526</v>
       </c>
       <c r="AC13" t="n">
-        <v>2031.002353969371</v>
+        <v>2119.910515155708</v>
       </c>
       <c r="AD13" t="n">
-        <v>1641000.7679492</v>
+        <v>1712836.411319375</v>
       </c>
       <c r="AE13" t="n">
-        <v>2245289.646552535</v>
+        <v>2343578.342976526</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.423873041390816e-06</v>
+        <v>2.671744310296158e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.846875</v>
       </c>
       <c r="AH13" t="n">
-        <v>2031002.353969371</v>
+        <v>2119910.515155708</v>
       </c>
     </row>
     <row r="14">
@@ -52456,28 +52456,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1618.319064784714</v>
+        <v>1690.154708154889</v>
       </c>
       <c r="AB14" t="n">
-        <v>2214.255539636763</v>
+        <v>2312.544236060754</v>
       </c>
       <c r="AC14" t="n">
-        <v>2002.930098660999</v>
+        <v>2091.838259847335</v>
       </c>
       <c r="AD14" t="n">
-        <v>1618319.064784714</v>
+        <v>1690154.708154889</v>
       </c>
       <c r="AE14" t="n">
-        <v>2214255.539636763</v>
+        <v>2312544.236060754</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.431138456264101e-06</v>
+        <v>2.685377078306624e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.79166666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>2002930.098660999</v>
+        <v>2091838.259847335</v>
       </c>
     </row>
     <row r="15">
@@ -52562,28 +52562,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1597.126686193856</v>
+        <v>1668.962329564032</v>
       </c>
       <c r="AB15" t="n">
-        <v>2185.259192306994</v>
+        <v>2283.547888730984</v>
       </c>
       <c r="AC15" t="n">
-        <v>1976.701122023753</v>
+        <v>2065.609283210089</v>
       </c>
       <c r="AD15" t="n">
-        <v>1597126.686193856</v>
+        <v>1668962.329564031</v>
       </c>
       <c r="AE15" t="n">
-        <v>2185259.192306994</v>
+        <v>2283547.888730984</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.437069407181067e-06</v>
+        <v>2.69650586851925e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.74791666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1976701.122023753</v>
+        <v>2065609.283210089</v>
       </c>
     </row>
     <row r="16">
@@ -52668,28 +52668,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1576.876185514934</v>
+        <v>1648.71182888511</v>
       </c>
       <c r="AB16" t="n">
-        <v>2157.551563889055</v>
+        <v>2255.840260313046</v>
       </c>
       <c r="AC16" t="n">
-        <v>1951.637870774121</v>
+        <v>2040.546031960459</v>
       </c>
       <c r="AD16" t="n">
-        <v>1576876.185514934</v>
+        <v>1648711.82888511</v>
       </c>
       <c r="AE16" t="n">
-        <v>2157551.563889055</v>
+        <v>2255840.260313046</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.442555536779262e-06</v>
+        <v>2.706799999465929e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.70729166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1951637.870774121</v>
+        <v>2040546.031960458</v>
       </c>
     </row>
     <row r="17">
@@ -52774,28 +52774,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1558.101442595641</v>
+        <v>1629.937085965816</v>
       </c>
       <c r="AB17" t="n">
-        <v>2131.863132343678</v>
+        <v>2230.151828767669</v>
       </c>
       <c r="AC17" t="n">
-        <v>1928.401107081495</v>
+        <v>2017.309268267832</v>
       </c>
       <c r="AD17" t="n">
-        <v>1558101.442595641</v>
+        <v>1629937.085965816</v>
       </c>
       <c r="AE17" t="n">
-        <v>2131863.132343678</v>
+        <v>2230151.828767669</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.447152023739911e-06</v>
+        <v>2.715424811880715e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.67291666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>1928401.107081495</v>
+        <v>2017309.268267832</v>
       </c>
     </row>
     <row r="18">
@@ -52880,28 +52880,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1538.779427155486</v>
+        <v>1610.615070525661</v>
       </c>
       <c r="AB18" t="n">
-        <v>2105.425898391298</v>
+        <v>2203.714594815289</v>
       </c>
       <c r="AC18" t="n">
-        <v>1904.487005632639</v>
+        <v>1993.395166818976</v>
       </c>
       <c r="AD18" t="n">
-        <v>1538779.427155486</v>
+        <v>1610615.070525661</v>
       </c>
       <c r="AE18" t="n">
-        <v>2105425.898391298</v>
+        <v>2203714.594815289</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.452045058246409e-06</v>
+        <v>2.724606063806131e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.6375</v>
       </c>
       <c r="AH18" t="n">
-        <v>1904487.005632639</v>
+        <v>1993395.166818976</v>
       </c>
     </row>
     <row r="19">
@@ -52986,28 +52986,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1521.276575902809</v>
+        <v>1593.112219272984</v>
       </c>
       <c r="AB19" t="n">
-        <v>2081.477725136084</v>
+        <v>2179.766421560075</v>
       </c>
       <c r="AC19" t="n">
-        <v>1882.824412421431</v>
+        <v>1971.732573607768</v>
       </c>
       <c r="AD19" t="n">
-        <v>1521276.575902809</v>
+        <v>1593112.219272984</v>
       </c>
       <c r="AE19" t="n">
-        <v>2081477.725136084</v>
+        <v>2179766.421560075</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.455158807477816e-06</v>
+        <v>2.73044867866776e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.61458333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>1882824.412421431</v>
+        <v>1971732.573607768</v>
       </c>
     </row>
     <row r="20">
@@ -53092,28 +53092,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1503.871540463869</v>
+        <v>1575.707183834045</v>
       </c>
       <c r="AB20" t="n">
-        <v>2057.663387792556</v>
+        <v>2155.952084216548</v>
       </c>
       <c r="AC20" t="n">
-        <v>1861.282882010338</v>
+        <v>1950.191043196674</v>
       </c>
       <c r="AD20" t="n">
-        <v>1503871.540463869</v>
+        <v>1575707.183834045</v>
       </c>
       <c r="AE20" t="n">
-        <v>2057663.387792557</v>
+        <v>2155952.084216548</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.459013925573845e-06</v>
+        <v>2.737682392305966e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.58645833333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>1861282.882010337</v>
+        <v>1950191.043196674</v>
       </c>
     </row>
     <row r="21">
@@ -53198,28 +53198,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1485.956492958559</v>
+        <v>1557.792136328734</v>
       </c>
       <c r="AB21" t="n">
-        <v>2033.151229439675</v>
+        <v>2131.439925863666</v>
       </c>
       <c r="AC21" t="n">
-        <v>1839.110129647624</v>
+        <v>1928.018290833961</v>
       </c>
       <c r="AD21" t="n">
-        <v>1485956.492958559</v>
+        <v>1557792.136328734</v>
       </c>
       <c r="AE21" t="n">
-        <v>2033151.229439675</v>
+        <v>2131439.925863666</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.462127674805252e-06</v>
+        <v>2.743525007167595e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.56354166666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>1839110.129647624</v>
+        <v>1928018.290833961</v>
       </c>
     </row>
     <row r="22">
@@ -53304,28 +53304,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1481.903674044591</v>
+        <v>1541.923168419785</v>
       </c>
       <c r="AB22" t="n">
-        <v>2027.605983803833</v>
+        <v>2109.727303881188</v>
       </c>
       <c r="AC22" t="n">
-        <v>1834.094114472466</v>
+        <v>1908.377891019635</v>
       </c>
       <c r="AD22" t="n">
-        <v>1481903.674044591</v>
+        <v>1541923.168419785</v>
       </c>
       <c r="AE22" t="n">
-        <v>2027605.983803833</v>
+        <v>2109727.303881188</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.463165591215722e-06</v>
+        <v>2.745472545454804e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>10.55625</v>
       </c>
       <c r="AH22" t="n">
-        <v>1834094.114472466</v>
+        <v>1908377.891019635</v>
       </c>
     </row>
     <row r="23">
@@ -53410,28 +53410,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1487.350196428517</v>
+        <v>1547.369690803711</v>
       </c>
       <c r="AB23" t="n">
-        <v>2035.058156013129</v>
+        <v>2117.179476090484</v>
       </c>
       <c r="AC23" t="n">
-        <v>1840.835061825296</v>
+        <v>1915.118838372465</v>
       </c>
       <c r="AD23" t="n">
-        <v>1487350.196428517</v>
+        <v>1547369.690803711</v>
       </c>
       <c r="AE23" t="n">
-        <v>2035058.156013129</v>
+        <v>2117179.476090484</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.462720769896949e-06</v>
+        <v>2.744637886188857e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>10.559375</v>
       </c>
       <c r="AH23" t="n">
-        <v>1840835.061825296</v>
+        <v>1915118.838372465</v>
       </c>
     </row>
   </sheetData>
@@ -53707,28 +53707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>665.295521014908</v>
+        <v>720.171427448288</v>
       </c>
       <c r="AB2" t="n">
-        <v>910.2866826195121</v>
+        <v>985.3703187557918</v>
       </c>
       <c r="AC2" t="n">
-        <v>823.4101992256881</v>
+        <v>891.3279585096665</v>
       </c>
       <c r="AD2" t="n">
-        <v>665295.521014908</v>
+        <v>720171.427448288</v>
       </c>
       <c r="AE2" t="n">
-        <v>910286.6826195121</v>
+        <v>985370.3187557918</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.62954417758874e-06</v>
+        <v>4.075366322804972e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.17916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>823410.1992256881</v>
+        <v>891327.9585096665</v>
       </c>
     </row>
   </sheetData>
@@ -54004,28 +54004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2668.071484202223</v>
+        <v>2765.311666116737</v>
       </c>
       <c r="AB2" t="n">
-        <v>3650.573111692228</v>
+        <v>3783.621418521733</v>
       </c>
       <c r="AC2" t="n">
-        <v>3302.167537523726</v>
+        <v>3422.517900683889</v>
       </c>
       <c r="AD2" t="n">
-        <v>2668071.484202222</v>
+        <v>2765311.666116737</v>
       </c>
       <c r="AE2" t="n">
-        <v>3650573.111692228</v>
+        <v>3783621.418521733</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.009682321237439e-06</v>
+        <v>2.07922210207962e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.846875</v>
       </c>
       <c r="AH2" t="n">
-        <v>3302167.537523726</v>
+        <v>3422517.900683889</v>
       </c>
     </row>
     <row r="3">
@@ -54110,28 +54110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1623.218938169787</v>
+        <v>1698.831226135616</v>
       </c>
       <c r="AB3" t="n">
-        <v>2220.959762569378</v>
+        <v>2324.415830742942</v>
       </c>
       <c r="AC3" t="n">
-        <v>2008.99447996636</v>
+        <v>2102.576846194943</v>
       </c>
       <c r="AD3" t="n">
-        <v>1623218.938169787</v>
+        <v>1698831.226135616</v>
       </c>
       <c r="AE3" t="n">
-        <v>2220959.762569378</v>
+        <v>2324415.830742942</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.337424908771571e-06</v>
+        <v>2.754136991109832e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.71875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2008994.47996636</v>
+        <v>2102576.846194943</v>
       </c>
     </row>
     <row r="4">
@@ -54216,28 +54216,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1392.331128618122</v>
+        <v>1457.21481046418</v>
       </c>
       <c r="AB4" t="n">
-        <v>1905.048875489528</v>
+        <v>1993.825591457324</v>
       </c>
       <c r="AC4" t="n">
-        <v>1723.233684565696</v>
+        <v>1803.53767536043</v>
       </c>
       <c r="AD4" t="n">
-        <v>1392331.128618122</v>
+        <v>1457214.81046418</v>
       </c>
       <c r="AE4" t="n">
-        <v>1905048.875489528</v>
+        <v>1993825.591457324</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.451408130544778e-06</v>
+        <v>2.988860754210523e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.71979166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1723233.684565696</v>
+        <v>1803537.67536043</v>
       </c>
     </row>
     <row r="5">
@@ -54322,28 +54322,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1287.036145957456</v>
+        <v>1351.749235602921</v>
       </c>
       <c r="AB5" t="n">
-        <v>1760.979634926418</v>
+        <v>1849.522939119367</v>
       </c>
       <c r="AC5" t="n">
-        <v>1592.91421011948</v>
+        <v>1673.007065631562</v>
       </c>
       <c r="AD5" t="n">
-        <v>1287036.145957456</v>
+        <v>1351749.235602921</v>
       </c>
       <c r="AE5" t="n">
-        <v>1760979.634926418</v>
+        <v>1849522.939119367</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.508726340920702e-06</v>
+        <v>3.106895196686659e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.27395833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1592914.21011948</v>
+        <v>1673007.065631562</v>
       </c>
     </row>
     <row r="6">
@@ -54428,28 +54428,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1216.129090866744</v>
+        <v>1270.19891524701</v>
       </c>
       <c r="AB6" t="n">
-        <v>1663.961473952813</v>
+        <v>1737.942193062191</v>
       </c>
       <c r="AC6" t="n">
-        <v>1505.155326263352</v>
+        <v>1572.075429373523</v>
       </c>
       <c r="AD6" t="n">
-        <v>1216129.090866744</v>
+        <v>1270198.91524701</v>
       </c>
       <c r="AE6" t="n">
-        <v>1663961.473952813</v>
+        <v>1737942.193062191</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.544978884235389e-06</v>
+        <v>3.181549459449343e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.01041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1505155.326263352</v>
+        <v>1572075.429373523</v>
       </c>
     </row>
     <row r="7">
@@ -54534,28 +54534,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1152.502752030905</v>
+        <v>1217.301093022391</v>
       </c>
       <c r="AB7" t="n">
-        <v>1576.905110161656</v>
+        <v>1665.565059007254</v>
       </c>
       <c r="AC7" t="n">
-        <v>1426.407499648049</v>
+        <v>1506.605867410843</v>
       </c>
       <c r="AD7" t="n">
-        <v>1152502.752030905</v>
+        <v>1217301.093022391</v>
       </c>
       <c r="AE7" t="n">
-        <v>1576905.110161656</v>
+        <v>1665565.059007254</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.568820646955859e-06</v>
+        <v>3.230646407032009e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.84270833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1426407.499648049</v>
+        <v>1506605.867410843</v>
       </c>
     </row>
     <row r="8">
@@ -54640,28 +54640,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1107.619504789869</v>
+        <v>1172.417845781355</v>
       </c>
       <c r="AB8" t="n">
-        <v>1515.493871177351</v>
+        <v>1604.15382002295</v>
       </c>
       <c r="AC8" t="n">
-        <v>1370.857263121191</v>
+        <v>1451.055630883985</v>
       </c>
       <c r="AD8" t="n">
-        <v>1107619.504789869</v>
+        <v>1172417.845781354</v>
       </c>
       <c r="AE8" t="n">
-        <v>1515493.871177351</v>
+        <v>1604153.820022949</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.585967120145238e-06</v>
+        <v>3.265955855635981e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.72604166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1370857.263121191</v>
+        <v>1451055.630883985</v>
       </c>
     </row>
     <row r="9">
@@ -54746,28 +54746,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1106.222091701458</v>
+        <v>1171.020432692944</v>
       </c>
       <c r="AB9" t="n">
-        <v>1513.581868940273</v>
+        <v>1602.241817785871</v>
       </c>
       <c r="AC9" t="n">
-        <v>1369.127739694108</v>
+        <v>1449.326107456902</v>
       </c>
       <c r="AD9" t="n">
-        <v>1106222.091701458</v>
+        <v>1171020.432692944</v>
       </c>
       <c r="AE9" t="n">
-        <v>1513581.868940273</v>
+        <v>1602241.817785871</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.587600117591846e-06</v>
+        <v>3.269318660264931e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.71458333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1369127.739694108</v>
+        <v>1449326.107456902</v>
       </c>
     </row>
   </sheetData>
@@ -55043,28 +55043,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3877.237519749533</v>
+        <v>3989.680000836676</v>
       </c>
       <c r="AB2" t="n">
-        <v>5305.007426168766</v>
+        <v>5458.856189404368</v>
       </c>
       <c r="AC2" t="n">
-        <v>4798.704963039705</v>
+        <v>4937.87061624019</v>
       </c>
       <c r="AD2" t="n">
-        <v>3877237.519749533</v>
+        <v>3989680.000836676</v>
       </c>
       <c r="AE2" t="n">
-        <v>5305007.426168766</v>
+        <v>5458856.189404367</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.400406281765483e-07</v>
+        <v>1.664275145795443e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.49583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4798704.963039705</v>
+        <v>4937870.616240189</v>
       </c>
     </row>
     <row r="3">
@@ -55149,28 +55149,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2063.335872411439</v>
+        <v>2142.165023712854</v>
       </c>
       <c r="AB3" t="n">
-        <v>2823.147168587591</v>
+        <v>2931.004691094899</v>
       </c>
       <c r="AC3" t="n">
-        <v>2553.709965129528</v>
+        <v>2651.273717067722</v>
       </c>
       <c r="AD3" t="n">
-        <v>2063335.872411439</v>
+        <v>2142165.023712854</v>
       </c>
       <c r="AE3" t="n">
-        <v>2823147.168587591</v>
+        <v>2931004.691094899</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.208413301172553e-06</v>
+        <v>2.394089232750098e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.55208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2553709.965129528</v>
+        <v>2651273.717067722</v>
       </c>
     </row>
     <row r="4">
@@ -55255,28 +55255,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1726.422682925119</v>
+        <v>1793.905275551739</v>
       </c>
       <c r="AB4" t="n">
-        <v>2362.167679171505</v>
+        <v>2454.500339525119</v>
       </c>
       <c r="AC4" t="n">
-        <v>2136.725711194536</v>
+        <v>2220.246272033704</v>
       </c>
       <c r="AD4" t="n">
-        <v>1726422.682925119</v>
+        <v>1793905.275551739</v>
       </c>
       <c r="AE4" t="n">
-        <v>2362167.679171505</v>
+        <v>2454500.339525119</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.339536992712744e-06</v>
+        <v>2.653869407107838e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.225</v>
       </c>
       <c r="AH4" t="n">
-        <v>2136725.711194536</v>
+        <v>2220246.272033704</v>
       </c>
     </row>
     <row r="5">
@@ -55361,28 +55361,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1570.718506998</v>
+        <v>1638.286350970641</v>
       </c>
       <c r="AB5" t="n">
-        <v>2149.126356484582</v>
+        <v>2241.575661490846</v>
       </c>
       <c r="AC5" t="n">
-        <v>1944.016753339478</v>
+        <v>2027.642826429359</v>
       </c>
       <c r="AD5" t="n">
-        <v>1570718.506998</v>
+        <v>1638286.350970641</v>
       </c>
       <c r="AE5" t="n">
-        <v>2149126.356484582</v>
+        <v>2241575.661490845</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.407299955607016e-06</v>
+        <v>2.788120312561297e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.6375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1944016.753339478</v>
+        <v>2027642.826429359</v>
       </c>
     </row>
     <row r="6">
@@ -55467,28 +55467,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1485.523943826805</v>
+        <v>1552.921195598854</v>
       </c>
       <c r="AB6" t="n">
-        <v>2032.559396634889</v>
+        <v>2124.775289866306</v>
       </c>
       <c r="AC6" t="n">
-        <v>1838.574780535085</v>
+        <v>1921.989718342314</v>
       </c>
       <c r="AD6" t="n">
-        <v>1485523.943826805</v>
+        <v>1552921.195598854</v>
       </c>
       <c r="AE6" t="n">
-        <v>2032559.396634889</v>
+        <v>2124775.289866306</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.448649513011177e-06</v>
+        <v>2.870041398719673e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.30625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1838574.780535085</v>
+        <v>1921989.718342314</v>
       </c>
     </row>
     <row r="7">
@@ -55573,28 +55573,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1424.90383755254</v>
+        <v>1481.210463704959</v>
       </c>
       <c r="AB7" t="n">
-        <v>1949.616292860099</v>
+        <v>2026.657502834867</v>
       </c>
       <c r="AC7" t="n">
-        <v>1763.547650173183</v>
+        <v>1833.236155195976</v>
       </c>
       <c r="AD7" t="n">
-        <v>1424903.83755254</v>
+        <v>1481210.463704959</v>
       </c>
       <c r="AE7" t="n">
-        <v>1949616.292860099</v>
+        <v>2026657.502834867</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.476320699715102e-06</v>
+        <v>2.924863114171666e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.09270833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1763547.650173183</v>
+        <v>1833236.155195976</v>
       </c>
     </row>
     <row r="8">
@@ -55679,28 +55679,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1366.803891423809</v>
+        <v>1434.286394541879</v>
       </c>
       <c r="AB8" t="n">
-        <v>1870.121383378046</v>
+        <v>1962.453921262113</v>
       </c>
       <c r="AC8" t="n">
-        <v>1691.639623280292</v>
+        <v>1775.160073338233</v>
       </c>
       <c r="AD8" t="n">
-        <v>1366803.891423809</v>
+        <v>1434286.394541879</v>
       </c>
       <c r="AE8" t="n">
-        <v>1870121.383378046</v>
+        <v>1962453.921262112</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.496445199136138e-06</v>
+        <v>2.964733452682207e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.94479166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1691639.623280291</v>
+        <v>1775160.073338233</v>
       </c>
     </row>
     <row r="9">
@@ -55785,28 +55785,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1326.916771776627</v>
+        <v>1394.399274894697</v>
       </c>
       <c r="AB9" t="n">
-        <v>1815.546066581246</v>
+        <v>1907.878604465312</v>
       </c>
       <c r="AC9" t="n">
-        <v>1642.272898121639</v>
+        <v>1725.793348179581</v>
       </c>
       <c r="AD9" t="n">
-        <v>1326916.771776627</v>
+        <v>1394399.274894697</v>
       </c>
       <c r="AE9" t="n">
-        <v>1815546.066581246</v>
+        <v>1907878.604465312</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.512167464308823e-06</v>
+        <v>2.995882154643566e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.83125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1642272.898121639</v>
+        <v>1725793.348179581</v>
       </c>
     </row>
     <row r="10">
@@ -55891,28 +55891,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1291.373114837461</v>
+        <v>1358.85561795553</v>
       </c>
       <c r="AB10" t="n">
-        <v>1766.913667081604</v>
+        <v>1859.24620496567</v>
       </c>
       <c r="AC10" t="n">
-        <v>1598.281906574241</v>
+        <v>1681.802356632183</v>
       </c>
       <c r="AD10" t="n">
-        <v>1291373.114837461</v>
+        <v>1358855.61795553</v>
       </c>
       <c r="AE10" t="n">
-        <v>1766913.667081604</v>
+        <v>1859246.20496567</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.52427360849179e-06</v>
+        <v>3.019866655153813e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.74479166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1598281.906574242</v>
+        <v>1681802.356632183</v>
       </c>
     </row>
     <row r="11">
@@ -55997,28 +55997,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1258.759658581938</v>
+        <v>1326.242161700007</v>
       </c>
       <c r="AB11" t="n">
-        <v>1722.290497428653</v>
+        <v>1814.623035312719</v>
       </c>
       <c r="AC11" t="n">
-        <v>1557.917509603956</v>
+        <v>1641.437959661898</v>
       </c>
       <c r="AD11" t="n">
-        <v>1258759.658581938</v>
+        <v>1326242.161700007</v>
       </c>
       <c r="AE11" t="n">
-        <v>1722290.497428653</v>
+        <v>1814623.035312719</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.534178635550582e-06</v>
+        <v>3.039490337389469e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.675</v>
       </c>
       <c r="AH11" t="n">
-        <v>1557917.509603956</v>
+        <v>1641437.959661898</v>
       </c>
     </row>
     <row r="12">
@@ -56103,28 +56103,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1233.676362627228</v>
+        <v>1301.158865745297</v>
       </c>
       <c r="AB12" t="n">
-        <v>1687.970425306501</v>
+        <v>1780.302963190567</v>
       </c>
       <c r="AC12" t="n">
-        <v>1526.872896996619</v>
+        <v>1610.393347054561</v>
       </c>
       <c r="AD12" t="n">
-        <v>1233676.362627228</v>
+        <v>1301158.865745297</v>
       </c>
       <c r="AE12" t="n">
-        <v>1687970.425306501</v>
+        <v>1780302.963190567</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.541410877530017e-06</v>
+        <v>3.053818740291695e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.625</v>
       </c>
       <c r="AH12" t="n">
-        <v>1526872.896996619</v>
+        <v>1610393.34705456</v>
       </c>
     </row>
     <row r="13">
@@ -56209,28 +56209,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1236.59583952294</v>
+        <v>1304.07834264101</v>
       </c>
       <c r="AB13" t="n">
-        <v>1691.964982393445</v>
+        <v>1784.297520277511</v>
       </c>
       <c r="AC13" t="n">
-        <v>1530.486219161582</v>
+        <v>1614.006669219523</v>
       </c>
       <c r="AD13" t="n">
-        <v>1236595.83952294</v>
+        <v>1304078.34264101</v>
       </c>
       <c r="AE13" t="n">
-        <v>1691964.982393445</v>
+        <v>1784297.520277512</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.541410877530017e-06</v>
+        <v>3.053818740291695e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.625</v>
       </c>
       <c r="AH13" t="n">
-        <v>1530486.219161582</v>
+        <v>1614006.669219523</v>
       </c>
     </row>
   </sheetData>
